--- a/1_Dataset and Analysis/summary_statistics.xlsx
+++ b/1_Dataset and Analysis/summary_statistics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sungbhin\Desktop\Replication Package\Dataset and Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sungbhin\Documents\Competition-Based-Framework_ReplicationPackage\1_Dataset and Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E07782-1A4F-4D3E-BBDD-BBECB054703D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF7CB7E-B54C-4511-9B4C-9331785CD9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="4" xr2:uid="{8348DC12-961E-4AC5-BEEB-55090EFD9BC0}"/>
+    <workbookView xWindow="25590" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="5" xr2:uid="{8348DC12-961E-4AC5-BEEB-55090EFD9BC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Competition_1" sheetId="7" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Competition_3" sheetId="5" r:id="rId3"/>
     <sheet name="Capstone_Design_1" sheetId="2" r:id="rId4"/>
     <sheet name="Capstone_Design_2" sheetId="1" r:id="rId5"/>
+    <sheet name="Correlation" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="81">
   <si>
     <t>T-Test</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -259,6 +260,68 @@
     <t>SE of Diff</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Variable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Self-Assessment (Post)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final Exam Score (out of 180)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peer Assessment Distribution Score</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peer Assessment: Technical Contribution</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peer Assessment: Collaboration &amp; Communication</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SA_Exam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>SA_PA</t>
+  </si>
+  <si>
+    <t>PA_Exam</t>
+  </si>
+  <si>
+    <t>PA_DR</t>
+  </si>
+  <si>
+    <t>Ex_DR</t>
+  </si>
+  <si>
+    <t>SA_DrivingRank</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exam_PA-Tech</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exam_PA-Comm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DR_PA-Tech</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -305,7 +368,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,6 +378,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,7 +704,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -696,11 +765,44 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -711,13 +813,16 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -726,22 +831,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -751,6 +850,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -780,13 +888,13 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1162,63 +1270,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="20" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="20" t="s">
+      <c r="F1" s="37"/>
+      <c r="G1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="20" t="s">
+      <c r="H1" s="37"/>
+      <c r="I1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="20" t="s">
+      <c r="J1" s="37"/>
+      <c r="K1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="20" t="s">
+      <c r="L1" s="37"/>
+      <c r="M1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="36" t="s">
+      <c r="N1" s="37"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="37"/>
-      <c r="S1" s="36" t="s">
+      <c r="R1" s="47"/>
+      <c r="S1" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="37"/>
-      <c r="U1" s="36" t="s">
+      <c r="T1" s="47"/>
+      <c r="U1" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="37"/>
-      <c r="W1" s="36" t="s">
+      <c r="V1" s="47"/>
+      <c r="W1" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="36" t="s">
+      <c r="X1" s="47"/>
+      <c r="Y1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="36" t="s">
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="36" t="s">
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="AD1" s="38"/>
+      <c r="AD1" s="48"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
@@ -1263,7 +1371,7 @@
       <c r="N2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="40"/>
+      <c r="P2" s="53"/>
       <c r="Q2" s="5" t="s">
         <v>17</v>
       </c>
@@ -1662,41 +1770,41 @@
       <c r="P6" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="Q6" s="25">
+      <c r="Q6" s="49">
         <f>_xlfn.T.TEST(A3:A45,B3:B45,2,2)</f>
         <v>1.5802148321562794E-3</v>
       </c>
-      <c r="R6" s="26"/>
-      <c r="S6" s="25">
+      <c r="R6" s="50"/>
+      <c r="S6" s="49">
         <f>_xlfn.T.TEST(C3:C45,D3:D45,2,2)</f>
         <v>1.6167953763782581E-6</v>
       </c>
-      <c r="T6" s="26"/>
-      <c r="U6" s="25">
+      <c r="T6" s="50"/>
+      <c r="U6" s="49">
         <f>_xlfn.T.TEST(E3:E45,F3:F45,2,2)</f>
         <v>1.7651585632386551E-8</v>
       </c>
-      <c r="V6" s="26"/>
-      <c r="W6" s="25">
+      <c r="V6" s="50"/>
+      <c r="W6" s="49">
         <f>_xlfn.T.TEST(G3:G45,H3:H45,2,2)</f>
         <v>4.2374806261724103E-10</v>
       </c>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="25">
+      <c r="X6" s="50"/>
+      <c r="Y6" s="49">
         <f>_xlfn.T.TEST(I3:I45,J3:J45,2,2)</f>
         <v>3.2869508038343101E-6</v>
       </c>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="25">
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="49">
         <f>_xlfn.T.TEST(K3:K45,L3:L45,2,2)</f>
         <v>3.9799658233687543E-6</v>
       </c>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="25">
+      <c r="AB6" s="50"/>
+      <c r="AC6" s="49">
         <f>_xlfn.T.TEST(M3:M45,N3:N45,2,2)</f>
         <v>4.4148618255187952E-12</v>
       </c>
-      <c r="AD6" s="27"/>
+      <c r="AD6" s="51"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
@@ -1744,41 +1852,41 @@
       <c r="P7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="Q7" s="22">
+      <c r="Q7" s="33">
         <f>(R4-Q4)/SQRT(((COUNT(B3:B45)-1)*_xlfn.VAR.S(B3:B45)+(COUNT(A3:A45)-1)*_xlfn.VAR.S(A3:A45))/(COUNT(B3:B45)+COUNT(A3:A45)-2))</f>
         <v>0.70435559181589447</v>
       </c>
-      <c r="R7" s="23"/>
-      <c r="S7" s="22">
+      <c r="R7" s="34"/>
+      <c r="S7" s="33">
         <f>(T4-S4)/SQRT(((COUNT(D3:D45)-1)*_xlfn.VAR.S(D3:D45)+(COUNT(C3:C45)-1)*_xlfn.VAR.S(C3:C45))/(COUNT(D3:D45)+COUNT(C3:C45)-2))</f>
         <v>1.1131056030905708</v>
       </c>
-      <c r="T7" s="23"/>
-      <c r="U7" s="22">
+      <c r="T7" s="34"/>
+      <c r="U7" s="33">
         <f>(V4-U4)/SQRT(((COUNT(F3:F45)-1)*_xlfn.VAR.S(F3:F45)+(COUNT(E3:E45)-1)*_xlfn.VAR.S(E3:E45))/(COUNT(F3:F45)+COUNT(E3:E45)-2))</f>
         <v>1.3439391478130494</v>
       </c>
-      <c r="V7" s="23"/>
-      <c r="W7" s="22">
+      <c r="V7" s="34"/>
+      <c r="W7" s="33">
         <f>(X4-W4)/SQRT(((COUNT(H3:H45)-1)*_xlfn.VAR.S(H3:H45)+(COUNT(G3:G45)-1)*_xlfn.VAR.S(G3:G45))/(COUNT(H3:H45)+COUNT(G3:G45)-2))</f>
         <v>1.5248408228020787</v>
       </c>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="22">
+      <c r="X7" s="34"/>
+      <c r="Y7" s="33">
         <f>(Z4-Y4)/SQRT(((COUNT(J3:J45)-1)*_xlfn.VAR.S(J3:J45)+(COUNT(I3:I45)-1)*_xlfn.VAR.S(I3:I45))/(COUNT(J3:J45)+COUNT(I3:I45)-2))</f>
         <v>1.0750532615883077</v>
       </c>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="22">
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="33">
         <f>(AB4-AA4)/SQRT(((COUNT(L3:L45)-1)*_xlfn.VAR.S(L3:L45)+(COUNT(K3:K45)-1)*_xlfn.VAR.S(K3:K45))/(COUNT(L3:L45)+COUNT(K3:K45)-2))</f>
         <v>1.0646841066074431</v>
       </c>
-      <c r="AB7" s="23"/>
-      <c r="AC7" s="22">
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="33">
         <f>(AD4-AC4)/SQRT(((COUNT(N3:N45)-1)*_xlfn.VAR.S(N3:N45)+(COUNT(M3:M45)-1)*_xlfn.VAR.S(M3:M45))/(COUNT(N3:N45)+COUNT(M3:M45)-2))</f>
         <v>1.7401866836642697</v>
       </c>
-      <c r="AD7" s="24"/>
+      <c r="AD7" s="35"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
@@ -1826,41 +1934,41 @@
       <c r="P8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="Q8" s="22">
+      <c r="Q8" s="33">
         <f>Q11-Q15</f>
         <v>0.29801168410333384</v>
       </c>
-      <c r="R8" s="23"/>
-      <c r="S8" s="22">
+      <c r="R8" s="34"/>
+      <c r="S8" s="33">
         <f>S11-S15</f>
         <v>0.91480804568402774</v>
       </c>
-      <c r="T8" s="23"/>
-      <c r="U8" s="22">
+      <c r="T8" s="34"/>
+      <c r="U8" s="33">
         <f>U11-U15</f>
         <v>1.2636644453775454</v>
       </c>
-      <c r="V8" s="23"/>
-      <c r="W8" s="22">
+      <c r="V8" s="34"/>
+      <c r="W8" s="33">
         <f>W11-W15</f>
         <v>1.1532497687058973</v>
       </c>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="22">
+      <c r="X8" s="34"/>
+      <c r="Y8" s="33">
         <f>Y11-Y15</f>
         <v>0.81064633682873155</v>
       </c>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="22">
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="33">
         <f>AA11-AA15</f>
         <v>0.8331773758025367</v>
       </c>
-      <c r="AB8" s="23"/>
-      <c r="AC8" s="22">
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="33">
         <f>AC11-AC15</f>
         <v>1.6464585177067748</v>
       </c>
-      <c r="AD8" s="24"/>
+      <c r="AD8" s="35"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
@@ -1908,41 +2016,41 @@
       <c r="P9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Q9" s="22">
+      <c r="Q9" s="33">
         <f>Q11+Q15</f>
         <v>1.2368720368268988</v>
       </c>
-      <c r="R9" s="23"/>
-      <c r="S9" s="22">
+      <c r="R9" s="34"/>
+      <c r="S9" s="33">
         <f>S11+S15</f>
         <v>2.0619361403624836</v>
       </c>
-      <c r="T9" s="23"/>
-      <c r="U9" s="22">
+      <c r="T9" s="34"/>
+      <c r="U9" s="33">
         <f>U11+U15</f>
         <v>2.4572657871805936</v>
       </c>
-      <c r="V9" s="23"/>
-      <c r="W9" s="22">
+      <c r="V9" s="34"/>
+      <c r="W9" s="33">
         <f>W11+W15</f>
         <v>2.0560525568754975</v>
       </c>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="22">
+      <c r="X9" s="34"/>
+      <c r="Y9" s="33">
         <f>Y11+Y15</f>
         <v>1.8870280817759191</v>
       </c>
-      <c r="Z9" s="23"/>
-      <c r="AA9" s="22">
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="33">
         <f>AA11+AA15</f>
         <v>1.9575202986160676</v>
       </c>
-      <c r="AB9" s="23"/>
-      <c r="AC9" s="22">
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="33">
         <f>AC11+AC15</f>
         <v>2.7256345055490399</v>
       </c>
-      <c r="AD9" s="24"/>
+      <c r="AD9" s="35"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
@@ -1987,21 +2095,21 @@
       <c r="N10" s="9">
         <v>4</v>
       </c>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="35"/>
-      <c r="Y10" s="35"/>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="35"/>
-      <c r="AB10" s="35"/>
-      <c r="AC10" s="35"/>
-      <c r="AD10" s="32"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="44"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="44"/>
+      <c r="Y10" s="44"/>
+      <c r="Z10" s="44"/>
+      <c r="AA10" s="44"/>
+      <c r="AB10" s="44"/>
+      <c r="AC10" s="44"/>
+      <c r="AD10" s="45"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
@@ -2049,41 +2157,41 @@
       <c r="P11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Q11" s="28">
+      <c r="Q11" s="40">
         <f>R4-Q4</f>
         <v>0.76744186046511631</v>
       </c>
-      <c r="R11" s="29"/>
-      <c r="S11" s="28">
+      <c r="R11" s="41"/>
+      <c r="S11" s="40">
         <f>T4-S4</f>
         <v>1.4883720930232558</v>
       </c>
-      <c r="T11" s="29"/>
-      <c r="U11" s="28">
+      <c r="T11" s="41"/>
+      <c r="U11" s="40">
         <f>V4-U4</f>
         <v>1.8604651162790695</v>
       </c>
-      <c r="V11" s="29"/>
-      <c r="W11" s="28">
+      <c r="V11" s="41"/>
+      <c r="W11" s="40">
         <f>X4-W4</f>
         <v>1.6046511627906974</v>
       </c>
-      <c r="X11" s="29"/>
-      <c r="Y11" s="28">
+      <c r="X11" s="41"/>
+      <c r="Y11" s="40">
         <f>Z4-Y4</f>
         <v>1.3488372093023253</v>
       </c>
-      <c r="Z11" s="29"/>
-      <c r="AA11" s="28">
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="40">
         <f>AB4-AA4</f>
         <v>1.3953488372093021</v>
       </c>
-      <c r="AB11" s="29"/>
-      <c r="AC11" s="28">
+      <c r="AB11" s="41"/>
+      <c r="AC11" s="40">
         <f>AD4-AC4</f>
         <v>2.1860465116279073</v>
       </c>
-      <c r="AD11" s="32"/>
+      <c r="AD11" s="45"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
@@ -2131,41 +2239,41 @@
       <c r="P12" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="Q12" s="28">
+      <c r="Q12" s="40">
         <f>SQRT(R5^2/COUNT(B3:B45)+Q5^2/COUNT(A3:A45))</f>
         <v>0.2349818331760769</v>
       </c>
-      <c r="R12" s="29"/>
-      <c r="S12" s="28">
+      <c r="R12" s="41"/>
+      <c r="S12" s="40">
         <f>SQRT(T5^2/COUNT(D3:D45)+S5^2/COUNT(C3:C45))</f>
         <v>0.28837387917855006</v>
       </c>
-      <c r="T12" s="29"/>
-      <c r="U12" s="28">
+      <c r="T12" s="41"/>
+      <c r="U12" s="40">
         <f>SQRT(V5^2/COUNT(F3:F45)+U5^2/COUNT(E3:E45))</f>
         <v>0.29855386423275315</v>
       </c>
-      <c r="V12" s="29"/>
-      <c r="W12" s="28">
+      <c r="V12" s="41"/>
+      <c r="W12" s="40">
         <f>SQRT(X5^2/COUNT(H3:H45)+W5^2/COUNT(G3:G45))</f>
         <v>0.22695350533686817</v>
       </c>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="28">
+      <c r="X12" s="41"/>
+      <c r="Y12" s="40">
         <f>SQRT(Z5^2/COUNT(J3:J45)+Y5^2/COUNT(I3:I45))</f>
         <v>0.2705891179087575</v>
       </c>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="28">
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="40">
         <f>SQRT(AB5^2/COUNT(L3:L45)+AA5^2/COUNT(K3:K45))</f>
         <v>0.2826459675103416</v>
       </c>
-      <c r="AB12" s="29"/>
-      <c r="AC12" s="28">
+      <c r="AB12" s="41"/>
+      <c r="AC12" s="40">
         <f>SQRT(AD5^2/COUNT(N3:N45)+AC5^2/COUNT(M3:M45))</f>
         <v>0.27092203372591511</v>
       </c>
-      <c r="AD12" s="32"/>
+      <c r="AD12" s="45"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
@@ -2213,41 +2321,41 @@
       <c r="P13" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="Q13" s="28">
+      <c r="Q13" s="40">
         <f>_xlfn.T.INV.2T(0.05,Q14)</f>
         <v>1.9977296543176954</v>
       </c>
-      <c r="R13" s="29"/>
-      <c r="S13" s="28">
+      <c r="R13" s="41"/>
+      <c r="S13" s="40">
         <f>_xlfn.T.INV.2T(0.05,S14)</f>
         <v>1.9889597801751635</v>
       </c>
-      <c r="T13" s="29"/>
-      <c r="U13" s="28">
+      <c r="T13" s="41"/>
+      <c r="U13" s="40">
         <f>_xlfn.T.INV.2T(0.05,U14)</f>
         <v>1.9989715170333793</v>
       </c>
-      <c r="V13" s="29"/>
-      <c r="W13" s="28">
+      <c r="V13" s="41"/>
+      <c r="W13" s="40">
         <f>_xlfn.T.INV.2T(0.05,W14)</f>
         <v>1.9889597801751635</v>
       </c>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="28">
+      <c r="X13" s="41"/>
+      <c r="Y13" s="40">
         <f>_xlfn.T.INV.2T(0.05,Y14)</f>
         <v>1.9889597801751635</v>
       </c>
-      <c r="Z13" s="29"/>
-      <c r="AA13" s="28">
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="40">
         <f>_xlfn.T.INV.2T(0.05,AA14)</f>
         <v>1.9889597801751635</v>
       </c>
-      <c r="AB13" s="29"/>
-      <c r="AC13" s="28">
+      <c r="AB13" s="41"/>
+      <c r="AC13" s="40">
         <f>_xlfn.T.INV.2T(0.05,AC14)</f>
         <v>1.991672609644662</v>
       </c>
-      <c r="AD13" s="32"/>
+      <c r="AD13" s="45"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
@@ -2295,41 +2403,41 @@
       <c r="P14" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="Q14" s="28">
+      <c r="Q14" s="40">
         <f>((Q5^2/Q3+R5^2/R3)^2)/(((Q5^2/Q3)^2)/(Q3-1)+((R5^2/R3)^2)/(R3-1))</f>
         <v>64.674225837141037</v>
       </c>
-      <c r="R14" s="29"/>
-      <c r="S14" s="28">
+      <c r="R14" s="41"/>
+      <c r="S14" s="40">
         <f>((S5^2/S3+T5^2/T3)^2)/(((S5^2/S3)^2)/(S3-1)+((T5^2/T3)^2)/(T3-1))</f>
         <v>83.765080460557243</v>
       </c>
-      <c r="T14" s="29"/>
-      <c r="U14" s="28">
+      <c r="T14" s="41"/>
+      <c r="U14" s="40">
         <f>((U5^2/U3+V5^2/V3)^2)/(((U5^2/U3)^2)/(U3-1)+((V5^2/V3)^2)/(V3-1))</f>
         <v>62.104922826500605</v>
       </c>
-      <c r="V14" s="29"/>
-      <c r="W14" s="28">
+      <c r="V14" s="41"/>
+      <c r="W14" s="40">
         <f>((W5^2/W3+X5^2/X3)^2)/(((W5^2/W3)^2)/(W3-1)+((X5^2/X3)^2)/(X3-1))</f>
         <v>83.764704943812816</v>
       </c>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="28">
+      <c r="X14" s="41"/>
+      <c r="Y14" s="40">
         <f>((Y5^2/Y3+Z5^2/Z3)^2)/(((Y5^2/Y3)^2)/(Y3-1)+((Z5^2/Z3)^2)/(Z3-1))</f>
         <v>83.198743702890397</v>
       </c>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="28">
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="40">
         <f>((AA5^2/AA3+AB5^2/AB3)^2)/(((AA5^2/AA3)^2)/(AA3-1)+((AB5^2/AB3)^2)/(AB3-1))</f>
         <v>83.724318236999707</v>
       </c>
-      <c r="AB14" s="29"/>
-      <c r="AC14" s="28">
+      <c r="AB14" s="41"/>
+      <c r="AC14" s="40">
         <f>((AC5^2/AC3+AD5^2/AD3)^2)/(((AC5^2/AC3)^2)/(AC3-1)+((AD5^2/AD3)^2)/(AD3-1))</f>
         <v>76.83965132779241</v>
       </c>
-      <c r="AD14" s="32"/>
+      <c r="AD14" s="45"/>
     </row>
     <row r="15" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
@@ -2377,41 +2485,41 @@
       <c r="P15" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="Q15" s="30">
+      <c r="Q15" s="38">
         <f>Q13*Q12</f>
         <v>0.46943017636178247</v>
       </c>
-      <c r="R15" s="31"/>
-      <c r="S15" s="30">
+      <c r="R15" s="42"/>
+      <c r="S15" s="38">
         <f>S13*S12</f>
         <v>0.57356404733922806</v>
       </c>
-      <c r="T15" s="31"/>
-      <c r="U15" s="30">
+      <c r="T15" s="42"/>
+      <c r="U15" s="38">
         <f>U13*U12</f>
         <v>0.59680067090152411</v>
       </c>
-      <c r="V15" s="31"/>
-      <c r="W15" s="30">
+      <c r="V15" s="42"/>
+      <c r="W15" s="38">
         <f>W13*W12</f>
         <v>0.45140139408480012</v>
       </c>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="30">
+      <c r="X15" s="42"/>
+      <c r="Y15" s="38">
         <f>Y13*Y12</f>
         <v>0.53819087247359376</v>
       </c>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="30">
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="38">
         <f>AA13*AA12</f>
         <v>0.56217146140676544</v>
       </c>
-      <c r="AB15" s="31"/>
-      <c r="AC15" s="30">
+      <c r="AB15" s="42"/>
+      <c r="AC15" s="38">
         <f>AC13*AC12</f>
         <v>0.53958799392113244</v>
       </c>
-      <c r="AD15" s="33"/>
+      <c r="AD15" s="39"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
@@ -3735,37 +3843,52 @@
     </row>
   </sheetData>
   <mergeCells count="79">
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y9:Z9"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AC7:AD7"/>
     <mergeCell ref="W6:X6"/>
     <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="Q15:R15"/>
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="S12:T12"/>
     <mergeCell ref="S13:T13"/>
     <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S15:T15"/>
     <mergeCell ref="P10:AD10"/>
     <mergeCell ref="Q11:R11"/>
     <mergeCell ref="Q12:R12"/>
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S15:T15"/>
     <mergeCell ref="U11:V11"/>
     <mergeCell ref="U12:V12"/>
     <mergeCell ref="U13:V13"/>
     <mergeCell ref="U14:V14"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AC14:AD14"/>
     <mergeCell ref="U15:V15"/>
     <mergeCell ref="Y11:Z11"/>
     <mergeCell ref="Y12:Z12"/>
@@ -3777,32 +3900,12 @@
     <mergeCell ref="W13:X13"/>
     <mergeCell ref="W14:X14"/>
     <mergeCell ref="W15:X15"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AC14:AD14"/>
     <mergeCell ref="AC15:AD15"/>
     <mergeCell ref="AA11:AB11"/>
     <mergeCell ref="AA12:AB12"/>
     <mergeCell ref="AA13:AB13"/>
     <mergeCell ref="AA14:AB14"/>
     <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y9:Z9"/>
     <mergeCell ref="AA8:AB8"/>
     <mergeCell ref="AA9:AB9"/>
     <mergeCell ref="AC8:AD8"/>
@@ -3814,6 +3917,11 @@
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="C1:D1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3834,63 +3942,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41" t="s">
+      <c r="D1" s="54"/>
+      <c r="E1" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41" t="s">
+      <c r="F1" s="54"/>
+      <c r="G1" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="54"/>
+      <c r="I1" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41" t="s">
+      <c r="J1" s="54"/>
+      <c r="K1" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41" t="s">
+      <c r="L1" s="54"/>
+      <c r="M1" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="36" t="s">
+      <c r="N1" s="37"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="37"/>
-      <c r="T1" s="36" t="s">
+      <c r="S1" s="47"/>
+      <c r="T1" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="37"/>
-      <c r="V1" s="36" t="s">
+      <c r="U1" s="47"/>
+      <c r="V1" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="37"/>
-      <c r="X1" s="36" t="s">
+      <c r="W1" s="47"/>
+      <c r="X1" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="36" t="s">
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="36" t="s">
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="36" t="s">
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="AE1" s="38"/>
+      <c r="AE1" s="48"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
@@ -3935,7 +4043,7 @@
       <c r="N2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="40"/>
+      <c r="Q2" s="53"/>
       <c r="R2" s="5" t="s">
         <v>17</v>
       </c>
@@ -4334,41 +4442,41 @@
       <c r="Q6" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="R6" s="25">
+      <c r="R6" s="49">
         <f>_xlfn.T.TEST(A3:A61,B3:B61,2,2)</f>
         <v>1.149537279107735E-4</v>
       </c>
-      <c r="S6" s="26"/>
-      <c r="T6" s="25">
+      <c r="S6" s="50"/>
+      <c r="T6" s="49">
         <f>_xlfn.T.TEST(C3:C61,D3:D61,2,2)</f>
         <v>5.3926084331581999E-16</v>
       </c>
-      <c r="U6" s="26"/>
-      <c r="V6" s="25">
+      <c r="U6" s="50"/>
+      <c r="V6" s="49">
         <f>_xlfn.T.TEST(E3:E61,F3:F61,2,2)</f>
         <v>2.046588101007671E-12</v>
       </c>
-      <c r="W6" s="26"/>
-      <c r="X6" s="25">
+      <c r="W6" s="50"/>
+      <c r="X6" s="49">
         <f>_xlfn.T.TEST(G3:G61,H3:H61,2,2)</f>
         <v>2.7838040896102781E-12</v>
       </c>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="25">
+      <c r="Y6" s="50"/>
+      <c r="Z6" s="49">
         <f>_xlfn.T.TEST(I3:I61,J3:J61,2,2)</f>
         <v>2.5797294485935335E-6</v>
       </c>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="25">
+      <c r="AA6" s="50"/>
+      <c r="AB6" s="49">
         <f>_xlfn.T.TEST(K3:K61,L3:L61,2,2)</f>
         <v>6.3438925473483284E-11</v>
       </c>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="25">
+      <c r="AC6" s="50"/>
+      <c r="AD6" s="49">
         <f>_xlfn.T.TEST(M3:M61,N3:N61,2,2)</f>
         <v>1.2913255400701786E-5</v>
       </c>
-      <c r="AE6" s="27"/>
+      <c r="AE6" s="51"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
@@ -4416,41 +4524,41 @@
       <c r="Q7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="R7" s="22">
+      <c r="R7" s="33">
         <f>(S4-R4)/SQRT(((COUNT(B3:B61)-1)*_xlfn.VAR.S(B3:B61)+(COUNT(A3:A61)-1)*_xlfn.VAR.S(A3:A61))/(COUNT(B3:B61)+COUNT(A3:A61)-2))</f>
         <v>0.73511548125246762</v>
       </c>
-      <c r="S7" s="23"/>
-      <c r="T7" s="22">
+      <c r="S7" s="34"/>
+      <c r="T7" s="33">
         <f>(U4-T4)/SQRT(((COUNT(D3:D61)-1)*_xlfn.VAR.S(D3:D61)+(COUNT(C3:C61)-1)*_xlfn.VAR.S(C3:C61))/(COUNT(D3:D61)+COUNT(C3:C61)-2))</f>
         <v>1.7346050331355063</v>
       </c>
-      <c r="U7" s="23"/>
-      <c r="V7" s="22">
+      <c r="U7" s="34"/>
+      <c r="V7" s="33">
         <f>(W4-V4)/SQRT(((COUNT(F3:F61)-1)*_xlfn.VAR.S(F3:F61)+(COUNT(E3:E61)-1)*_xlfn.VAR.S(E3:E61))/(COUNT(F3:F61)+COUNT(E3:E61)-2))</f>
         <v>1.4492606173326361</v>
       </c>
-      <c r="W7" s="23"/>
-      <c r="X7" s="22">
+      <c r="W7" s="34"/>
+      <c r="X7" s="33">
         <f>(Y4-X4)/SQRT(((COUNT(H3:H61)-1)*_xlfn.VAR.S(H3:H61)+(COUNT(G3:G61)-1)*_xlfn.VAR.S(G3:G61))/(COUNT(H3:H61)+COUNT(G3:G61)-2))</f>
         <v>1.4383774137066572</v>
       </c>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="22">
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="33">
         <f>(AA4-Z4)/SQRT(((COUNT(J3:J61)-1)*_xlfn.VAR.S(J3:J61)+(COUNT(I3:I61)-1)*_xlfn.VAR.S(I3:I61))/(COUNT(J3:J61)+COUNT(I3:I61)-2))</f>
         <v>0.91070429520844642</v>
       </c>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="22">
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="33">
         <f>(AC4-AB4)/SQRT(((COUNT(L3:L61)-1)*_xlfn.VAR.S(L3:L61)+(COUNT(K3:K61)-1)*_xlfn.VAR.S(K3:K61))/(COUNT(L3:L61)+COUNT(K3:K61)-2))</f>
         <v>1.3263198487377679</v>
       </c>
-      <c r="AC7" s="23"/>
-      <c r="AD7" s="22">
+      <c r="AC7" s="34"/>
+      <c r="AD7" s="33">
         <f>(AE4-AD4)/SQRT(((COUNT(N3:N61)-1)*_xlfn.VAR.S(N3:N61)+(COUNT(M3:M61)-1)*_xlfn.VAR.S(M3:M61))/(COUNT(N3:N61)+COUNT(M3:M61)-2))</f>
         <v>0.83903776818180653</v>
       </c>
-      <c r="AE7" s="24"/>
+      <c r="AE7" s="35"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
@@ -4498,41 +4606,41 @@
       <c r="Q8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="R8" s="22">
+      <c r="R8" s="33">
         <f>R11-R15</f>
         <v>0.5198921434856113</v>
       </c>
-      <c r="S8" s="23"/>
-      <c r="T8" s="22">
+      <c r="S8" s="34"/>
+      <c r="T8" s="33">
         <f>T11-T15</f>
         <v>1.8201628291600105</v>
       </c>
-      <c r="U8" s="23"/>
-      <c r="V8" s="22">
+      <c r="U8" s="34"/>
+      <c r="V8" s="33">
         <f>V11-V15</f>
         <v>1.4829106334242144</v>
       </c>
-      <c r="W8" s="23"/>
-      <c r="X8" s="22">
+      <c r="W8" s="34"/>
+      <c r="X8" s="33">
         <f>X11-X15</f>
         <v>1.2778263804180456</v>
       </c>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="22">
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="33">
         <f>Z11-Z15</f>
         <v>0.72144122140725542</v>
       </c>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="22">
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="33">
         <f>AB11-AB15</f>
         <v>1.2042035848010713</v>
       </c>
-      <c r="AC8" s="23"/>
-      <c r="AD8" s="22">
+      <c r="AC8" s="34"/>
+      <c r="AD8" s="33">
         <f>AD11-AD15</f>
         <v>0.65157820516771314</v>
       </c>
-      <c r="AE8" s="24"/>
+      <c r="AE8" s="35"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
@@ -4580,41 +4688,41 @@
       <c r="Q9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="R9" s="22">
+      <c r="R9" s="33">
         <f>R11+R15</f>
         <v>1.5479044666838808</v>
       </c>
-      <c r="S9" s="23"/>
-      <c r="T9" s="22">
+      <c r="S9" s="34"/>
+      <c r="T9" s="33">
         <f>T11+T15</f>
         <v>2.7900066623654132</v>
       </c>
-      <c r="U9" s="23"/>
-      <c r="V9" s="22">
+      <c r="U9" s="34"/>
+      <c r="V9" s="33">
         <f>V11+V15</f>
         <v>2.4831910614910391</v>
       </c>
-      <c r="W9" s="23"/>
-      <c r="X9" s="22">
+      <c r="W9" s="34"/>
+      <c r="X9" s="33">
         <f>X11+X15</f>
         <v>2.1459024331412762</v>
       </c>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="22">
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="33">
         <f>Z11+Z15</f>
         <v>1.6853384396096944</v>
       </c>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="22">
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="33">
         <f>AB11+AB15</f>
         <v>2.1178303135040131</v>
       </c>
-      <c r="AC9" s="23"/>
-      <c r="AD9" s="22">
+      <c r="AC9" s="34"/>
+      <c r="AD9" s="33">
         <f>AD11+AD15</f>
         <v>1.6535065405949987</v>
       </c>
-      <c r="AE9" s="24"/>
+      <c r="AE9" s="35"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
@@ -4659,21 +4767,21 @@
       <c r="N10" s="9">
         <v>1</v>
       </c>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="35"/>
-      <c r="Y10" s="35"/>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="35"/>
-      <c r="AB10" s="35"/>
-      <c r="AC10" s="35"/>
-      <c r="AD10" s="35"/>
-      <c r="AE10" s="32"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="44"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="44"/>
+      <c r="Y10" s="44"/>
+      <c r="Z10" s="44"/>
+      <c r="AA10" s="44"/>
+      <c r="AB10" s="44"/>
+      <c r="AC10" s="44"/>
+      <c r="AD10" s="44"/>
+      <c r="AE10" s="45"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
@@ -4721,41 +4829,41 @@
       <c r="Q11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="R11" s="42">
+      <c r="R11" s="55">
         <f>S4-R4</f>
         <v>1.0338983050847461</v>
       </c>
-      <c r="S11" s="47"/>
-      <c r="T11" s="42">
+      <c r="S11" s="60"/>
+      <c r="T11" s="55">
         <f>U4-T4</f>
         <v>2.3050847457627119</v>
       </c>
-      <c r="U11" s="47"/>
-      <c r="V11" s="42">
+      <c r="U11" s="60"/>
+      <c r="V11" s="55">
         <f>W4-V4</f>
         <v>1.9830508474576267</v>
       </c>
-      <c r="W11" s="47"/>
-      <c r="X11" s="42">
+      <c r="W11" s="60"/>
+      <c r="X11" s="55">
         <f>Y4-X4</f>
         <v>1.7118644067796609</v>
       </c>
-      <c r="Y11" s="47"/>
-      <c r="Z11" s="42">
+      <c r="Y11" s="60"/>
+      <c r="Z11" s="55">
         <f>AA4-Z4</f>
         <v>1.2033898305084749</v>
       </c>
-      <c r="AA11" s="47"/>
-      <c r="AB11" s="42">
+      <c r="AA11" s="60"/>
+      <c r="AB11" s="55">
         <f>AC4-AB4</f>
         <v>1.6610169491525422</v>
       </c>
-      <c r="AC11" s="47"/>
-      <c r="AD11" s="42">
+      <c r="AC11" s="60"/>
+      <c r="AD11" s="55">
         <f>AE4-AD4</f>
         <v>1.152542372881356</v>
       </c>
-      <c r="AE11" s="43"/>
+      <c r="AE11" s="56"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
@@ -4803,41 +4911,41 @@
       <c r="Q12" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="R12" s="42">
+      <c r="R12" s="55">
         <f>SQRT(S5^2/COUNT(B3:B61)+R5^2/COUNT(A3:A61))</f>
         <v>0.25894721616459482</v>
       </c>
-      <c r="S12" s="47"/>
-      <c r="T12" s="42">
+      <c r="S12" s="60"/>
+      <c r="T12" s="55">
         <f>SQRT(U5^2/COUNT(D3:D61)+T5^2/COUNT(C3:C61))</f>
         <v>0.24466693783517846</v>
       </c>
-      <c r="U12" s="47"/>
-      <c r="V12" s="42">
+      <c r="U12" s="60"/>
+      <c r="V12" s="55">
         <f>SQRT(W5^2/COUNT(F3:F61)+V5^2/COUNT(E3:E61))</f>
         <v>0.25192794923678652</v>
       </c>
-      <c r="W12" s="47"/>
-      <c r="X12" s="42">
+      <c r="W12" s="60"/>
+      <c r="X12" s="55">
         <f>SQRT(Y5^2/COUNT(H3:H61)+X5^2/COUNT(G3:G61))</f>
         <v>0.21912175582677987</v>
       </c>
-      <c r="Y12" s="47"/>
-      <c r="Z12" s="42">
+      <c r="Y12" s="60"/>
+      <c r="Z12" s="55">
         <f>SQRT(AA5^2/COUNT(J3:J61)+Z5^2/COUNT(I3:I61))</f>
         <v>0.24328646284675892</v>
       </c>
-      <c r="AA12" s="47"/>
-      <c r="AB12" s="42">
+      <c r="AA12" s="60"/>
+      <c r="AB12" s="55">
         <f>SQRT(AC5^2/COUNT(L3:L61)+AB5^2/COUNT(K3:K61))</f>
         <v>0.23057636432779691</v>
       </c>
-      <c r="AC12" s="47"/>
-      <c r="AD12" s="42">
+      <c r="AC12" s="60"/>
+      <c r="AD12" s="55">
         <f>SQRT(AE5^2/COUNT(N3:N61)+AD5^2/COUNT(M3:M61))</f>
         <v>0.2529090571991936</v>
       </c>
-      <c r="AE12" s="43"/>
+      <c r="AE12" s="56"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
@@ -4885,41 +4993,41 @@
       <c r="Q13" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="R13" s="42">
+      <c r="R13" s="55">
         <f>_xlfn.T.INV.2T(0.05,R14)</f>
         <v>1.9849843115224561</v>
       </c>
-      <c r="S13" s="47"/>
-      <c r="T13" s="42">
+      <c r="S13" s="60"/>
+      <c r="T13" s="55">
         <f>_xlfn.T.INV.2T(0.05,T14)</f>
         <v>1.9819674897364858</v>
       </c>
-      <c r="U13" s="47"/>
-      <c r="V13" s="42">
+      <c r="U13" s="60"/>
+      <c r="V13" s="55">
         <f>_xlfn.T.INV.2T(0.05,V14)</f>
         <v>1.9852510035054973</v>
       </c>
-      <c r="W13" s="47"/>
-      <c r="X13" s="42">
+      <c r="W13" s="60"/>
+      <c r="X13" s="55">
         <f>_xlfn.T.INV.2T(0.05,X14)</f>
         <v>1.9808075411039101</v>
       </c>
-      <c r="Y13" s="47"/>
-      <c r="Z13" s="42">
+      <c r="Y13" s="60"/>
+      <c r="Z13" s="55">
         <f>_xlfn.T.INV.2T(0.05,Z14)</f>
         <v>1.9809922979758596</v>
       </c>
-      <c r="AA13" s="47"/>
-      <c r="AB13" s="42">
+      <c r="AA13" s="60"/>
+      <c r="AB13" s="55">
         <f>_xlfn.T.INV.2T(0.05,AB14)</f>
         <v>1.9811803594146622</v>
       </c>
-      <c r="AC13" s="47"/>
-      <c r="AD13" s="42">
+      <c r="AC13" s="60"/>
+      <c r="AD13" s="55">
         <f>_xlfn.T.INV.2T(0.05,AD14)</f>
         <v>1.9808075411039101</v>
       </c>
-      <c r="AE13" s="43"/>
+      <c r="AE13" s="56"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
@@ -4967,41 +5075,41 @@
       <c r="Q14" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="R14" s="42">
+      <c r="R14" s="55">
         <f>((R5^2/R3+S5^2/S3)^2)/(((R5^2/R3)^2)/(R3-1)+((S5^2/S3)^2)/(S3-1))</f>
         <v>96.241993124596561</v>
       </c>
-      <c r="S14" s="47"/>
-      <c r="T14" s="42">
+      <c r="S14" s="60"/>
+      <c r="T14" s="55">
         <f>((T5^2/T3+U5^2/U3)^2)/(((T5^2/T3)^2)/(T3-1)+((U5^2/U3)^2)/(U3-1))</f>
         <v>109.12324956829285</v>
       </c>
-      <c r="U14" s="47"/>
-      <c r="V14" s="42">
+      <c r="U14" s="60"/>
+      <c r="V14" s="55">
         <f>((V5^2/V3+W5^2/W3)^2)/(((V5^2/V3)^2)/(V3-1)+((W5^2/W3)^2)/(W3-1))</f>
         <v>95.67556499759354</v>
       </c>
-      <c r="W14" s="47"/>
-      <c r="X14" s="42">
+      <c r="W14" s="60"/>
+      <c r="X14" s="55">
         <f>((X5^2/X3+Y5^2/Y3)^2)/(((X5^2/X3)^2)/(X3-1)+((Y5^2/Y3)^2)/(Y3-1))</f>
         <v>115.96599515461463</v>
       </c>
-      <c r="Y14" s="47"/>
-      <c r="Z14" s="42">
+      <c r="Y14" s="60"/>
+      <c r="Z14" s="55">
         <f>((Z5^2/Z3+AA5^2/AA3)^2)/(((Z5^2/Z3)^2)/(Z3-1)+((AA5^2/AA3)^2)/(AA3-1))</f>
         <v>114.68013823627297</v>
       </c>
-      <c r="AA14" s="47"/>
-      <c r="AB14" s="42">
+      <c r="AA14" s="60"/>
+      <c r="AB14" s="55">
         <f>((AB5^2/AB3+AC5^2/AC3)^2)/(((AB5^2/AB3)^2)/(AB3-1)+((AC5^2/AC3)^2)/(AC3-1))</f>
         <v>113.87589221149302</v>
       </c>
-      <c r="AC14" s="47"/>
-      <c r="AD14" s="42">
+      <c r="AC14" s="60"/>
+      <c r="AD14" s="55">
         <f>((AD5^2/AD3+AE5^2/AE3)^2)/(((AD5^2/AD3)^2)/(AD3-1)+((AE5^2/AE3)^2)/(AE3-1))</f>
         <v>115.45654394372494</v>
       </c>
-      <c r="AE14" s="43"/>
+      <c r="AE14" s="56"/>
     </row>
     <row r="15" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
@@ -5049,41 +5157,41 @@
       <c r="Q15" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="R15" s="44">
+      <c r="R15" s="57">
         <f>R13*R12</f>
         <v>0.51400616159913481</v>
       </c>
-      <c r="S15" s="45"/>
-      <c r="T15" s="44">
+      <c r="S15" s="58"/>
+      <c r="T15" s="57">
         <f>T13*T12</f>
         <v>0.48492191660270145</v>
       </c>
-      <c r="U15" s="45"/>
-      <c r="V15" s="44">
+      <c r="U15" s="58"/>
+      <c r="V15" s="57">
         <f>V13*V12</f>
         <v>0.50014021403341247</v>
       </c>
-      <c r="W15" s="45"/>
-      <c r="X15" s="44">
+      <c r="W15" s="58"/>
+      <c r="X15" s="57">
         <f>X13*X12</f>
         <v>0.4340380263616152</v>
       </c>
-      <c r="Y15" s="45"/>
-      <c r="Z15" s="44">
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="57">
         <f>Z13*Z12</f>
         <v>0.48194860910121956</v>
       </c>
-      <c r="AA15" s="45"/>
-      <c r="AB15" s="44">
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="57">
         <f>AB13*AB12</f>
         <v>0.4568133643514708</v>
       </c>
-      <c r="AC15" s="45"/>
-      <c r="AD15" s="44">
+      <c r="AC15" s="58"/>
+      <c r="AD15" s="57">
         <f>AD13*AD12</f>
         <v>0.50096416771364283</v>
       </c>
-      <c r="AE15" s="46"/>
+      <c r="AE15" s="59"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
@@ -7306,57 +7414,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41" t="s">
+      <c r="D1" s="54"/>
+      <c r="E1" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41" t="s">
+      <c r="F1" s="54"/>
+      <c r="G1" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="54"/>
+      <c r="I1" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41" t="s">
+      <c r="J1" s="54"/>
+      <c r="K1" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="21"/>
+      <c r="L1" s="37"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="36" t="s">
+      <c r="P1" s="52"/>
+      <c r="Q1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="37"/>
-      <c r="S1" s="36" t="s">
+      <c r="R1" s="47"/>
+      <c r="S1" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="37"/>
-      <c r="U1" s="36" t="s">
+      <c r="T1" s="47"/>
+      <c r="U1" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="37"/>
-      <c r="W1" s="36" t="s">
+      <c r="V1" s="47"/>
+      <c r="W1" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="36" t="s">
+      <c r="X1" s="47"/>
+      <c r="Y1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="36" t="s">
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="38"/>
+      <c r="AB1" s="48"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
@@ -7395,7 +7503,7 @@
       <c r="L2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="40"/>
+      <c r="P2" s="53"/>
       <c r="Q2" s="5" t="s">
         <v>17</v>
       </c>
@@ -7740,36 +7848,36 @@
       <c r="P6" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="Q6" s="25">
+      <c r="Q6" s="49">
         <f>_xlfn.T.TEST(A3:A60,B3:B60,2,2)</f>
         <v>2.0336661930601791E-13</v>
       </c>
-      <c r="R6" s="26"/>
-      <c r="S6" s="25">
+      <c r="R6" s="50"/>
+      <c r="S6" s="49">
         <f t="shared" ref="S6" si="3">_xlfn.T.TEST(C3:C60,D3:D60,2,2)</f>
         <v>3.2228745193266365E-13</v>
       </c>
-      <c r="T6" s="26"/>
-      <c r="U6" s="25">
+      <c r="T6" s="50"/>
+      <c r="U6" s="49">
         <f t="shared" ref="U6" si="4">_xlfn.T.TEST(E3:E60,F3:F60,2,2)</f>
         <v>1.8042610184640665E-14</v>
       </c>
-      <c r="V6" s="26"/>
-      <c r="W6" s="25">
+      <c r="V6" s="50"/>
+      <c r="W6" s="49">
         <f t="shared" ref="W6" si="5">_xlfn.T.TEST(G3:G60,H3:H60,2,2)</f>
         <v>7.5560603114584931E-19</v>
       </c>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="25">
+      <c r="X6" s="50"/>
+      <c r="Y6" s="49">
         <f t="shared" ref="Y6" si="6">_xlfn.T.TEST(I3:I60,J3:J60,2,2)</f>
         <v>8.8192804203909696E-15</v>
       </c>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="25">
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="49">
         <f t="shared" ref="AA6" si="7">_xlfn.T.TEST(K3:K60,L3:L60,2,2)</f>
         <v>5.0869179810608233E-20</v>
       </c>
-      <c r="AB6" s="26"/>
+      <c r="AB6" s="50"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
@@ -7811,36 +7919,36 @@
       <c r="P7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="Q7" s="22">
+      <c r="Q7" s="33">
         <f>(R4-Q4)/SQRT(((COUNT(B3:B60)-1)*_xlfn.VAR.S(B3:B60)+(COUNT(A3:A60)-1)*_xlfn.VAR.S(A3:A60))/(COUNT(B3:B60)+COUNT(A3:A60)-2))</f>
         <v>1.5468958688441594</v>
       </c>
-      <c r="R7" s="23"/>
-      <c r="S7" s="22">
+      <c r="R7" s="34"/>
+      <c r="S7" s="33">
         <f t="shared" ref="S7" si="8">(T4-S4)/SQRT(((COUNT(D3:D60)-1)*_xlfn.VAR.S(D3:D60)+(COUNT(C3:C60)-1)*_xlfn.VAR.S(C3:C60))/(COUNT(D3:D60)+COUNT(C3:C60)-2))</f>
         <v>1.5305900731923308</v>
       </c>
-      <c r="T7" s="23"/>
-      <c r="U7" s="22">
+      <c r="T7" s="34"/>
+      <c r="U7" s="33">
         <f t="shared" ref="U7" si="9">(V4-U4)/SQRT(((COUNT(F3:F60)-1)*_xlfn.VAR.S(F3:F60)+(COUNT(E3:E60)-1)*_xlfn.VAR.S(E3:E60))/(COUNT(F3:F60)+COUNT(E3:E60)-2))</f>
         <v>1.6321146215623492</v>
       </c>
-      <c r="V7" s="23"/>
-      <c r="W7" s="22">
+      <c r="V7" s="34"/>
+      <c r="W7" s="33">
         <f t="shared" ref="W7" si="10">(X4-W4)/SQRT(((COUNT(H3:H60)-1)*_xlfn.VAR.S(H3:H60)+(COUNT(G3:G60)-1)*_xlfn.VAR.S(G3:G60))/(COUNT(H3:H60)+COUNT(G3:G60)-2))</f>
         <v>1.9812840690705575</v>
       </c>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="22">
+      <c r="X7" s="34"/>
+      <c r="Y7" s="33">
         <f t="shared" ref="Y7" si="11">(Z4-Y4)/SQRT(((COUNT(J3:J60)-1)*_xlfn.VAR.S(J3:J60)+(COUNT(I3:I60)-1)*_xlfn.VAR.S(I3:I60))/(COUNT(J3:J60)+COUNT(I3:I60)-2))</f>
         <v>1.6571430309970752</v>
       </c>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="22">
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="33">
         <f t="shared" ref="AA7" si="12">(AB4-AA4)/SQRT(((COUNT(L3:L60)-1)*_xlfn.VAR.S(L3:L60)+(COUNT(K3:K60)-1)*_xlfn.VAR.S(K3:K60))/(COUNT(L3:L60)+COUNT(K3:K60)-2))</f>
         <v>2.0744160889255472</v>
       </c>
-      <c r="AB7" s="23"/>
+      <c r="AB7" s="34"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
@@ -7882,36 +7990,36 @@
       <c r="P8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="Q8" s="22">
+      <c r="Q8" s="33">
         <f>Q11-Q15</f>
         <v>1.3120880169656592</v>
       </c>
-      <c r="R8" s="23"/>
-      <c r="S8" s="22">
+      <c r="R8" s="34"/>
+      <c r="S8" s="33">
         <f>S11-S15</f>
         <v>1.5584710821898506</v>
       </c>
-      <c r="T8" s="23"/>
-      <c r="U8" s="22">
+      <c r="T8" s="34"/>
+      <c r="U8" s="33">
         <f>U11-U15</f>
         <v>1.5751278726832796</v>
       </c>
-      <c r="V8" s="23"/>
-      <c r="W8" s="22">
+      <c r="V8" s="34"/>
+      <c r="W8" s="33">
         <f>W11-W15</f>
         <v>1.8659256248730731</v>
       </c>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="22">
+      <c r="X8" s="34"/>
+      <c r="Y8" s="33">
         <f>Y11-Y15</f>
         <v>1.5827714109244164</v>
       </c>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="22">
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="33">
         <f>AA11-AA15</f>
         <v>1.9710782435782581</v>
       </c>
-      <c r="AB8" s="24"/>
+      <c r="AB8" s="35"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
@@ -7953,36 +8061,36 @@
       <c r="P9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Q9" s="22">
+      <c r="Q9" s="33">
         <f>Q11+Q15</f>
         <v>2.1361878451033069</v>
       </c>
-      <c r="R9" s="23"/>
-      <c r="S9" s="22">
+      <c r="R9" s="34"/>
+      <c r="S9" s="33">
         <f>S11+S15</f>
         <v>2.5449771936722185</v>
       </c>
-      <c r="T9" s="23"/>
-      <c r="U9" s="22">
+      <c r="T9" s="34"/>
+      <c r="U9" s="33">
         <f>U11+U15</f>
         <v>2.4938376445580994</v>
       </c>
-      <c r="V9" s="23"/>
-      <c r="W9" s="22">
+      <c r="V9" s="34"/>
+      <c r="W9" s="33">
         <f>W11+W15</f>
         <v>2.7202812716786511</v>
       </c>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="22">
+      <c r="X9" s="34"/>
+      <c r="Y9" s="33">
         <f>Y11+Y15</f>
         <v>2.4861941063169635</v>
       </c>
-      <c r="Z9" s="23"/>
-      <c r="AA9" s="22">
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="33">
         <f>AA11+AA15</f>
         <v>2.8220252046976047</v>
       </c>
-      <c r="AB9" s="24"/>
+      <c r="AB9" s="35"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
@@ -8021,19 +8129,19 @@
       <c r="L10" s="9">
         <v>5</v>
       </c>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="35"/>
-      <c r="Y10" s="35"/>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="35"/>
-      <c r="AB10" s="32"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="44"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="44"/>
+      <c r="Y10" s="44"/>
+      <c r="Z10" s="44"/>
+      <c r="AA10" s="44"/>
+      <c r="AB10" s="45"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
@@ -8075,36 +8183,36 @@
       <c r="P11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Q11" s="28">
+      <c r="Q11" s="40">
         <f>R4-Q4</f>
         <v>1.7241379310344831</v>
       </c>
-      <c r="R11" s="29"/>
-      <c r="S11" s="28">
+      <c r="R11" s="41"/>
+      <c r="S11" s="40">
         <f>T4-S4</f>
         <v>2.0517241379310347</v>
       </c>
-      <c r="T11" s="29"/>
-      <c r="U11" s="28">
+      <c r="T11" s="41"/>
+      <c r="U11" s="40">
         <f>V4-U4</f>
         <v>2.0344827586206895</v>
       </c>
-      <c r="V11" s="29"/>
-      <c r="W11" s="28">
+      <c r="V11" s="41"/>
+      <c r="W11" s="40">
         <f>X4-W4</f>
         <v>2.2931034482758621</v>
       </c>
-      <c r="X11" s="29"/>
-      <c r="Y11" s="28">
+      <c r="X11" s="41"/>
+      <c r="Y11" s="40">
         <f>Z4-Y4</f>
         <v>2.0344827586206899</v>
       </c>
-      <c r="Z11" s="29"/>
-      <c r="AA11" s="28">
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="40">
         <f>AB4-AA4</f>
         <v>2.3965517241379315</v>
       </c>
-      <c r="AB11" s="32"/>
+      <c r="AB11" s="45"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
@@ -8146,36 +8254,36 @@
       <c r="P12" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="Q12" s="28">
+      <c r="Q12" s="40">
         <f>SQRT(R5^2/COUNT(B3:B60)+Q5^2/COUNT(A3:A60))</f>
         <v>0.20697215799442126</v>
       </c>
-      <c r="R12" s="29"/>
-      <c r="S12" s="28">
+      <c r="R12" s="41"/>
+      <c r="S12" s="40">
         <f t="shared" ref="S12" si="13">SQRT(T5^2/COUNT(D3:D60)+S5^2/COUNT(C3:C60))</f>
         <v>0.24892073606912027</v>
       </c>
-      <c r="T12" s="29"/>
-      <c r="U12" s="28">
+      <c r="T12" s="41"/>
+      <c r="U12" s="40">
         <f t="shared" ref="U12" si="14">SQRT(V5^2/COUNT(F3:F60)+U5^2/COUNT(E3:E60))</f>
         <v>0.23147514205577382</v>
       </c>
-      <c r="V12" s="29"/>
-      <c r="W12" s="28">
+      <c r="V12" s="41"/>
+      <c r="W12" s="40">
         <f t="shared" ref="W12" si="15">SQRT(X5^2/COUNT(H3:H60)+W5^2/COUNT(G3:G60))</f>
         <v>0.214920529039688</v>
       </c>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="28">
+      <c r="X12" s="41"/>
+      <c r="Y12" s="40">
         <f t="shared" ref="Y12" si="16">SQRT(Z5^2/COUNT(J3:J60)+Y5^2/COUNT(I3:I60))</f>
         <v>0.2279790922151953</v>
       </c>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="28">
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="40">
         <f t="shared" ref="AA12" si="17">SQRT(AB5^2/COUNT(L3:L60)+AA5^2/COUNT(K3:K60))</f>
         <v>0.21453192792343517</v>
       </c>
-      <c r="AB12" s="29"/>
+      <c r="AB12" s="41"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
@@ -8217,36 +8325,36 @@
       <c r="P13" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="Q13" s="28">
+      <c r="Q13" s="40">
         <f>_xlfn.T.INV.2T(0.05,Q14)</f>
         <v>1.9908470688116919</v>
       </c>
-      <c r="R13" s="29"/>
-      <c r="S13" s="28">
+      <c r="R13" s="41"/>
+      <c r="S13" s="40">
         <f>_xlfn.T.INV.2T(0.05,S14)</f>
         <v>1.9815667570749009</v>
       </c>
-      <c r="T13" s="29"/>
-      <c r="U13" s="28">
+      <c r="T13" s="41"/>
+      <c r="U13" s="40">
         <f>_xlfn.T.INV.2T(0.05,U14)</f>
         <v>1.9844674545084788</v>
       </c>
-      <c r="V13" s="29"/>
-      <c r="W13" s="28">
+      <c r="V13" s="41"/>
+      <c r="W13" s="40">
         <f>_xlfn.T.INV.2T(0.05,W14)</f>
         <v>1.9876082815890745</v>
       </c>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="28">
+      <c r="X13" s="41"/>
+      <c r="Y13" s="40">
         <f>_xlfn.T.INV.2T(0.05,Y14)</f>
         <v>1.9813718148763031</v>
       </c>
-      <c r="Z13" s="29"/>
-      <c r="AA13" s="28">
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="40">
         <f>_xlfn.T.INV.2T(0.05,AA14)</f>
         <v>1.9832641447734605</v>
       </c>
-      <c r="AB13" s="32"/>
+      <c r="AB13" s="45"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
@@ -8288,36 +8396,36 @@
       <c r="P14" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="Q14" s="28">
+      <c r="Q14" s="40">
         <f>((Q5^2/Q3+R5^2/R3)^2)/(((Q5^2/Q3)^2)/(Q3-1)+((R5^2/R3)^2)/(R3-1))</f>
         <v>78.073411750948978</v>
       </c>
-      <c r="R14" s="29"/>
-      <c r="S14" s="28">
+      <c r="R14" s="41"/>
+      <c r="S14" s="40">
         <f>((S5^2/S3+T5^2/T3)^2)/(((S5^2/S3)^2)/(S3-1)+((T5^2/T3)^2)/(T3-1))</f>
         <v>111.42258968958009</v>
       </c>
-      <c r="T14" s="29"/>
-      <c r="U14" s="28">
+      <c r="T14" s="41"/>
+      <c r="U14" s="40">
         <f>((U5^2/U3+V5^2/V3)^2)/(((U5^2/U3)^2)/(U3-1)+((V5^2/V3)^2)/(V3-1))</f>
         <v>98.942310100202917</v>
       </c>
-      <c r="V14" s="29"/>
-      <c r="W14" s="28">
+      <c r="V14" s="41"/>
+      <c r="W14" s="40">
         <f>((W5^2/W3+X5^2/X3)^2)/(((W5^2/W3)^2)/(W3-1)+((X5^2/X3)^2)/(X3-1))</f>
         <v>87.593673447075631</v>
       </c>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="28">
+      <c r="X14" s="41"/>
+      <c r="Y14" s="40">
         <f>((Y5^2/Y3+Z5^2/Z3)^2)/(((Y5^2/Y3)^2)/(Y3-1)+((Z5^2/Z3)^2)/(Z3-1))</f>
         <v>112.13858439193685</v>
       </c>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="28">
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="40">
         <f>((AA5^2/AA3+AB5^2/AB3)^2)/(((AA5^2/AA3)^2)/(AA3-1)+((AB5^2/AB3)^2)/(AB3-1))</f>
         <v>103.7960201603719</v>
       </c>
-      <c r="AB14" s="32"/>
+      <c r="AB14" s="45"/>
     </row>
     <row r="15" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
@@ -8359,36 +8467,36 @@
       <c r="P15" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="Q15" s="30">
+      <c r="Q15" s="38">
         <f>Q13*Q12</f>
         <v>0.41204991406882396</v>
       </c>
-      <c r="R15" s="31"/>
-      <c r="S15" s="30">
+      <c r="R15" s="42"/>
+      <c r="S15" s="38">
         <f>S13*S12</f>
         <v>0.493253055741184</v>
       </c>
-      <c r="T15" s="31"/>
-      <c r="U15" s="30">
+      <c r="T15" s="42"/>
+      <c r="U15" s="38">
         <f>U13*U12</f>
         <v>0.45935488593741003</v>
       </c>
-      <c r="V15" s="31"/>
-      <c r="W15" s="30">
+      <c r="V15" s="42"/>
+      <c r="W15" s="38">
         <f>W13*W12</f>
         <v>0.42717782340278904</v>
       </c>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="30">
+      <c r="X15" s="42"/>
+      <c r="Y15" s="38">
         <f>Y13*Y12</f>
         <v>0.45171134769627358</v>
       </c>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="30">
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="38">
         <f>AA13*AA12</f>
         <v>0.42547348055967332</v>
       </c>
-      <c r="AB15" s="33"/>
+      <c r="AB15" s="39"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
@@ -10253,6 +10361,7 @@
     <mergeCell ref="U9:V9"/>
     <mergeCell ref="W9:X9"/>
     <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="P10:AB10"/>
     <mergeCell ref="U13:V13"/>
     <mergeCell ref="W13:X13"/>
     <mergeCell ref="Y13:Z13"/>
@@ -10262,7 +10371,9 @@
     <mergeCell ref="U12:V12"/>
     <mergeCell ref="W12:X12"/>
     <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="P10:AB10"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
     <mergeCell ref="AA14:AB14"/>
     <mergeCell ref="Q15:R15"/>
     <mergeCell ref="S15:T15"/>
@@ -10275,9 +10386,6 @@
     <mergeCell ref="U14:V14"/>
     <mergeCell ref="W14:X14"/>
     <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10299,59 +10407,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41" t="s">
+      <c r="D1" s="54"/>
+      <c r="E1" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41" t="s">
+      <c r="F1" s="54"/>
+      <c r="G1" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="54"/>
+      <c r="I1" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41" t="s">
+      <c r="J1" s="54"/>
+      <c r="K1" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41" t="s">
+      <c r="L1" s="54"/>
+      <c r="M1" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="36" t="s">
+      <c r="N1" s="37"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="37"/>
-      <c r="S1" s="36" t="s">
+      <c r="R1" s="47"/>
+      <c r="S1" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="37"/>
-      <c r="U1" s="36" t="s">
+      <c r="T1" s="47"/>
+      <c r="U1" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="37"/>
-      <c r="W1" s="36" t="s">
+      <c r="V1" s="47"/>
+      <c r="W1" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="36" t="s">
+      <c r="X1" s="47"/>
+      <c r="Y1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="36" t="s">
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="38"/>
+      <c r="AB1" s="48"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
@@ -10396,7 +10504,7 @@
       <c r="N2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="40"/>
+      <c r="P2" s="53"/>
       <c r="Q2" s="5" t="s">
         <v>17</v>
       </c>
@@ -10765,36 +10873,36 @@
       <c r="P6" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="Q6" s="25">
+      <c r="Q6" s="49">
         <f>_xlfn.T.TEST(A3:A19,B3:B19,2,2)</f>
         <v>2.9611357538818339E-2</v>
       </c>
-      <c r="R6" s="26"/>
-      <c r="S6" s="25">
+      <c r="R6" s="50"/>
+      <c r="S6" s="49">
         <f t="shared" ref="S6" si="3">_xlfn.T.TEST(C3:C19,D3:D19,2,2)</f>
         <v>9.0157352598772746E-3</v>
       </c>
-      <c r="T6" s="26"/>
-      <c r="U6" s="25">
+      <c r="T6" s="50"/>
+      <c r="U6" s="49">
         <f t="shared" ref="U6" si="4">_xlfn.T.TEST(E3:E19,F3:F19,2,2)</f>
         <v>6.4079292591261959E-3</v>
       </c>
-      <c r="V6" s="26"/>
-      <c r="W6" s="25">
+      <c r="V6" s="50"/>
+      <c r="W6" s="49">
         <f t="shared" ref="W6" si="5">_xlfn.T.TEST(G3:G19,H3:H19,2,2)</f>
         <v>1.7391652881648543E-2</v>
       </c>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="25">
+      <c r="X6" s="50"/>
+      <c r="Y6" s="49">
         <f t="shared" ref="Y6" si="6">_xlfn.T.TEST(I3:I19,J3:J19,2,2)</f>
         <v>4.0665570426878959E-3</v>
       </c>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="25">
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="49">
         <f t="shared" ref="AA6" si="7">_xlfn.T.TEST(K3:K19,L3:L19,2,2)</f>
         <v>9.8230246904745756E-4</v>
       </c>
-      <c r="AB6" s="27"/>
+      <c r="AB6" s="51"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
@@ -10842,36 +10950,36 @@
       <c r="P7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="Q7" s="22">
+      <c r="Q7" s="33">
         <f>(R4-Q4)/SQRT(((COUNT(B3:B19)-1)*_xlfn.VAR.S(B3:B19)+(COUNT(A3:A19)-1)*_xlfn.VAR.S(A3:A19))/(COUNT(B3:B19)+COUNT(A3:A19)-2))</f>
         <v>0.78101066698916244</v>
       </c>
-      <c r="R7" s="23"/>
-      <c r="S7" s="22">
+      <c r="R7" s="34"/>
+      <c r="S7" s="33">
         <f t="shared" ref="S7" si="8">(T4-S4)/SQRT(((COUNT(D3:D19)-1)*_xlfn.VAR.S(D3:D19)+(COUNT(C3:C19)-1)*_xlfn.VAR.S(C3:C19))/(COUNT(D3:D19)+COUNT(C3:C19)-2))</f>
         <v>0.95372604428544427</v>
       </c>
-      <c r="T7" s="23"/>
-      <c r="U7" s="22">
+      <c r="T7" s="34"/>
+      <c r="U7" s="33">
         <f t="shared" ref="U7" si="9">(V4-U4)/SQRT(((COUNT(F3:F19)-1)*_xlfn.VAR.S(F3:F19)+(COUNT(E3:E19)-1)*_xlfn.VAR.S(E3:E19))/(COUNT(F3:F19)+COUNT(E3:E19)-2))</f>
         <v>1.0006255865485196</v>
       </c>
-      <c r="V7" s="23"/>
-      <c r="W7" s="22">
+      <c r="V7" s="34"/>
+      <c r="W7" s="33">
         <f t="shared" ref="W7" si="10">(X4-W4)/SQRT(((COUNT(H3:H19)-1)*_xlfn.VAR.S(H3:H19)+(COUNT(G3:G19)-1)*_xlfn.VAR.S(G3:G19))/(COUNT(H3:H19)+COUNT(G3:G19)-2))</f>
         <v>0.86036510702767788</v>
       </c>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="22">
+      <c r="X7" s="34"/>
+      <c r="Y7" s="33">
         <f t="shared" ref="Y7" si="11">(Z4-Y4)/SQRT(((COUNT(J3:J19)-1)*_xlfn.VAR.S(J3:J19)+(COUNT(I3:I19)-1)*_xlfn.VAR.S(I3:I19))/(COUNT(J3:J19)+COUNT(I3:I19)-2))</f>
         <v>1.0616767162400567</v>
       </c>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="22">
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="33">
         <f t="shared" ref="AA7" si="12">(AB4-AA4)/SQRT(((COUNT(L3:L19)-1)*_xlfn.VAR.S(L3:L19)+(COUNT(K3:K19)-1)*_xlfn.VAR.S(K3:K19))/(COUNT(L3:L19)+COUNT(K3:K19)-2))</f>
         <v>1.2445072520313083</v>
       </c>
-      <c r="AB7" s="24"/>
+      <c r="AB7" s="35"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
@@ -10919,36 +11027,36 @@
       <c r="P8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="Q8" s="22">
+      <c r="Q8" s="33">
         <f>Q11-Q15</f>
         <v>9.5806704903161455E-2</v>
       </c>
-      <c r="R8" s="23"/>
-      <c r="S8" s="22">
+      <c r="R8" s="34"/>
+      <c r="S8" s="33">
         <f>S11-S15</f>
         <v>0.37334889165630525</v>
       </c>
-      <c r="T8" s="23"/>
-      <c r="U8" s="22">
+      <c r="T8" s="34"/>
+      <c r="U8" s="33">
         <f>U11-U15</f>
         <v>0.34415437242433677</v>
       </c>
-      <c r="V8" s="23"/>
-      <c r="W8" s="22">
+      <c r="V8" s="34"/>
+      <c r="W8" s="33">
         <f>W11-W15</f>
         <v>0.20636146158218749</v>
       </c>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="22">
+      <c r="X8" s="34"/>
+      <c r="Y8" s="33">
         <f>Y11-Y15</f>
         <v>0.40023598549109962</v>
       </c>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="22">
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="33">
         <f>AA11-AA15</f>
         <v>0.69547571006064324</v>
       </c>
-      <c r="AB8" s="24"/>
+      <c r="AB8" s="35"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
@@ -10996,36 +11104,36 @@
       <c r="P9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Q9" s="22">
+      <c r="Q9" s="33">
         <f>Q11+Q15</f>
         <v>1.7865462362733096</v>
       </c>
-      <c r="R9" s="23"/>
-      <c r="S9" s="22">
+      <c r="R9" s="34"/>
+      <c r="S9" s="33">
         <f>S11+S15</f>
         <v>2.4501805201084004</v>
       </c>
-      <c r="T9" s="23"/>
-      <c r="U9" s="22">
+      <c r="T9" s="34"/>
+      <c r="U9" s="33">
         <f>U11+U15</f>
         <v>2.0087868040462511</v>
       </c>
-      <c r="V9" s="23"/>
-      <c r="W9" s="22">
+      <c r="V9" s="34"/>
+      <c r="W9" s="33">
         <f>W11+W15</f>
         <v>2.0289326560648715</v>
       </c>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="22">
+      <c r="X9" s="34"/>
+      <c r="Y9" s="33">
         <f>Y11+Y15</f>
         <v>1.9527051909794881</v>
       </c>
-      <c r="Z9" s="23"/>
-      <c r="AA9" s="22">
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="33">
         <f>AA11+AA15</f>
         <v>2.4809948781746511</v>
       </c>
-      <c r="AB9" s="24"/>
+      <c r="AB9" s="35"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
@@ -11070,19 +11178,19 @@
       <c r="N10" s="9">
         <v>3</v>
       </c>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="35"/>
-      <c r="Y10" s="35"/>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="35"/>
-      <c r="AB10" s="32"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="44"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="44"/>
+      <c r="Y10" s="44"/>
+      <c r="Z10" s="44"/>
+      <c r="AA10" s="44"/>
+      <c r="AB10" s="45"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
@@ -11130,36 +11238,36 @@
       <c r="P11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Q11" s="28">
+      <c r="Q11" s="40">
         <f>R4-Q4</f>
         <v>0.9411764705882355</v>
       </c>
-      <c r="R11" s="29"/>
-      <c r="S11" s="28">
+      <c r="R11" s="41"/>
+      <c r="S11" s="40">
         <f>T4-S4</f>
         <v>1.4117647058823528</v>
       </c>
-      <c r="T11" s="29"/>
-      <c r="U11" s="28">
+      <c r="T11" s="41"/>
+      <c r="U11" s="40">
         <f>V4-U4</f>
         <v>1.1764705882352939</v>
       </c>
-      <c r="V11" s="29"/>
-      <c r="W11" s="28">
+      <c r="V11" s="41"/>
+      <c r="W11" s="40">
         <f>X4-W4</f>
         <v>1.1176470588235294</v>
       </c>
-      <c r="X11" s="29"/>
-      <c r="Y11" s="28">
+      <c r="X11" s="41"/>
+      <c r="Y11" s="40">
         <f>Z4-Y4</f>
         <v>1.1764705882352939</v>
       </c>
-      <c r="Z11" s="29"/>
-      <c r="AA11" s="28">
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="40">
         <f>AB4-AA4</f>
         <v>1.5882352941176472</v>
       </c>
-      <c r="AB11" s="32"/>
+      <c r="AB11" s="45"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
@@ -11207,36 +11315,36 @@
       <c r="P12" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="Q12" s="28">
+      <c r="Q12" s="40">
         <f>SQRT(R5^2/COUNT(B3:B19)+Q5^2/COUNT(A3:A19))</f>
         <v>0.41333733301632941</v>
       </c>
-      <c r="R12" s="29"/>
-      <c r="S12" s="28">
+      <c r="R12" s="41"/>
+      <c r="S12" s="40">
         <f t="shared" ref="S12" si="13">SQRT(T5^2/COUNT(D3:D19)+S5^2/COUNT(C3:C19))</f>
         <v>0.50772577945976682</v>
       </c>
-      <c r="T12" s="29"/>
-      <c r="U12" s="28">
+      <c r="T12" s="41"/>
+      <c r="U12" s="40">
         <f t="shared" ref="U12" si="14">SQRT(V5^2/COUNT(F3:F19)+U5^2/COUNT(E3:E19))</f>
         <v>0.40327380002359087</v>
       </c>
-      <c r="V12" s="29"/>
-      <c r="W12" s="28">
+      <c r="V12" s="41"/>
+      <c r="W12" s="40">
         <f t="shared" ref="W12" si="15">SQRT(X5^2/COUNT(H3:H19)+W5^2/COUNT(G3:G19))</f>
         <v>0.44556639433950329</v>
       </c>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="28">
+      <c r="X12" s="41"/>
+      <c r="Y12" s="40">
         <f t="shared" ref="Y12" si="16">SQRT(Z5^2/COUNT(J3:J19)+Y5^2/COUNT(I3:I19))</f>
         <v>0.3800837642152966</v>
       </c>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="28">
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="40">
         <f t="shared" ref="AA12" si="17">SQRT(AB5^2/COUNT(L3:L19)+AA5^2/COUNT(K3:K19))</f>
         <v>0.43773164900403583</v>
       </c>
-      <c r="AB12" s="32"/>
+      <c r="AB12" s="45"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
@@ -11284,36 +11392,36 @@
       <c r="P13" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="Q13" s="28">
+      <c r="Q13" s="40">
         <f>_xlfn.T.INV.2T(0.05,Q14)</f>
         <v>2.0452296421327048</v>
       </c>
-      <c r="R13" s="29"/>
-      <c r="S13" s="28">
+      <c r="R13" s="41"/>
+      <c r="S13" s="40">
         <f>_xlfn.T.INV.2T(0.05,S14)</f>
         <v>2.0452296421327048</v>
       </c>
-      <c r="T13" s="29"/>
-      <c r="U13" s="28">
+      <c r="T13" s="41"/>
+      <c r="U13" s="40">
         <f>_xlfn.T.INV.2T(0.05,U14)</f>
         <v>2.0638985616280254</v>
       </c>
-      <c r="V13" s="29"/>
-      <c r="W13" s="28">
+      <c r="V13" s="41"/>
+      <c r="W13" s="40">
         <f>_xlfn.T.INV.2T(0.05,W14)</f>
         <v>2.0452296421327048</v>
       </c>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="28">
+      <c r="X13" s="41"/>
+      <c r="Y13" s="40">
         <f>_xlfn.T.INV.2T(0.05,Y14)</f>
         <v>2.0422724563012378</v>
       </c>
-      <c r="Z13" s="29"/>
-      <c r="AA13" s="28">
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="40">
         <f>_xlfn.T.INV.2T(0.05,AA14)</f>
         <v>2.0395134463964082</v>
       </c>
-      <c r="AB13" s="32"/>
+      <c r="AB13" s="45"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
@@ -11361,36 +11469,36 @@
       <c r="P14" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="Q14" s="28">
+      <c r="Q14" s="40">
         <f>((Q5^2/Q3+R5^2/R3)^2)/(((Q5^2/Q3)^2)/(Q3-1)+((R5^2/R3)^2)/(R3-1))</f>
         <v>29.337313292515244</v>
       </c>
-      <c r="R14" s="29"/>
-      <c r="S14" s="28">
+      <c r="R14" s="41"/>
+      <c r="S14" s="40">
         <f>((S5^2/S3+T5^2/T3)^2)/(((S5^2/S3)^2)/(S3-1)+((T5^2/T3)^2)/(T3-1))</f>
         <v>29.997234332281256</v>
       </c>
-      <c r="T14" s="29"/>
-      <c r="U14" s="28">
+      <c r="T14" s="41"/>
+      <c r="U14" s="40">
         <f>((U5^2/U3+V5^2/V3)^2)/(((U5^2/U3)^2)/(U3-1)+((V5^2/V3)^2)/(V3-1))</f>
         <v>24.72256710675876</v>
       </c>
-      <c r="V14" s="29"/>
-      <c r="W14" s="28">
+      <c r="V14" s="41"/>
+      <c r="W14" s="40">
         <f>((W5^2/W3+X5^2/X3)^2)/(((W5^2/W3)^2)/(W3-1)+((X5^2/X3)^2)/(X3-1))</f>
         <v>29.724403685904488</v>
       </c>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="28">
+      <c r="X14" s="41"/>
+      <c r="Y14" s="40">
         <f>((Y5^2/Y3+Z5^2/Z3)^2)/(((Y5^2/Y3)^2)/(Y3-1)+((Z5^2/Z3)^2)/(Z3-1))</f>
         <v>30.797432535026562</v>
       </c>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="28">
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="40">
         <f>((AA5^2/AA3+AB5^2/AB3)^2)/(((AA5^2/AA3)^2)/(AA3-1)+((AB5^2/AB3)^2)/(AB3-1))</f>
         <v>31.823409581530164</v>
       </c>
-      <c r="AB14" s="32"/>
+      <c r="AB14" s="45"/>
     </row>
     <row r="15" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
@@ -11438,36 +11546,36 @@
       <c r="P15" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="Q15" s="30">
+      <c r="Q15" s="38">
         <f>Q13*Q12</f>
         <v>0.84536976568507405</v>
       </c>
-      <c r="R15" s="31"/>
-      <c r="S15" s="30">
+      <c r="R15" s="42"/>
+      <c r="S15" s="38">
         <f>S13*S12</f>
         <v>1.0384158142260476</v>
       </c>
-      <c r="T15" s="31"/>
-      <c r="U15" s="30">
+      <c r="T15" s="42"/>
+      <c r="U15" s="38">
         <f>U13*U12</f>
         <v>0.83231621581095716</v>
       </c>
-      <c r="V15" s="31"/>
-      <c r="W15" s="30">
+      <c r="V15" s="42"/>
+      <c r="W15" s="38">
         <f>W13*W12</f>
         <v>0.91128559724134195</v>
       </c>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="30">
+      <c r="X15" s="42"/>
+      <c r="Y15" s="38">
         <f>Y13*Y12</f>
         <v>0.77623460274419431</v>
       </c>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="30">
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="38">
         <f>AA13*AA12</f>
         <v>0.89275958405700395</v>
       </c>
-      <c r="AB15" s="33"/>
+      <c r="AB15" s="39"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
@@ -11837,7 +11945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521FC85E-8114-4E75-ACAE-689694855F5E}">
   <dimension ref="A1:AI68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="T15" sqref="T15:U15"/>
     </sheetView>
   </sheetViews>
@@ -11850,71 +11958,71 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41" t="s">
+      <c r="E1" s="54"/>
+      <c r="F1" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41" t="s">
+      <c r="G1" s="54"/>
+      <c r="H1" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41" t="s">
+      <c r="K1" s="54"/>
+      <c r="L1" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41" t="s">
+      <c r="M1" s="54"/>
+      <c r="N1" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41" t="s">
+      <c r="O1" s="54"/>
+      <c r="P1" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="Q1" s="21"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="41" t="s">
+      <c r="Q1" s="37"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41" t="s">
+      <c r="U1" s="54"/>
+      <c r="V1" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41" t="s">
+      <c r="W1" s="54"/>
+      <c r="X1" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41" t="s">
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41" t="s">
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41" t="s">
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41" t="s">
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41" t="s">
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="AI1" s="21"/>
+      <c r="AI1" s="37"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
@@ -11966,7 +12074,7 @@
       <c r="Q2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="56"/>
+      <c r="S2" s="69"/>
       <c r="T2" s="5" t="s">
         <v>17</v>
       </c>
@@ -12431,46 +12539,46 @@
       <c r="S6" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="T6" s="52">
+      <c r="T6" s="65">
         <f>_xlfn.T.TEST(B3:B34,C3:C34,2,1)</f>
         <v>5.0481396134402079E-7</v>
       </c>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52">
+      <c r="U6" s="65"/>
+      <c r="V6" s="65">
         <f t="shared" ref="V6" si="3">_xlfn.T.TEST(D3:D34,E3:E34,2,1)</f>
         <v>1.3979502889401267E-10</v>
       </c>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52">
+      <c r="W6" s="65"/>
+      <c r="X6" s="65">
         <f t="shared" ref="X6" si="4">_xlfn.T.TEST(F3:F34,G3:G34,2,1)</f>
         <v>1.962186020630436E-9</v>
       </c>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52">
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="65">
         <f t="shared" ref="Z6" si="5">_xlfn.T.TEST(H3:H34,I3:I34,2,1)</f>
         <v>1.7446185554370009E-6</v>
       </c>
-      <c r="AA6" s="52"/>
-      <c r="AB6" s="52">
+      <c r="AA6" s="65"/>
+      <c r="AB6" s="65">
         <f t="shared" ref="AB6" si="6">_xlfn.T.TEST(J3:J34,K3:K34,2,1)</f>
         <v>3.7277239483346354E-10</v>
       </c>
-      <c r="AC6" s="52"/>
-      <c r="AD6" s="52">
+      <c r="AC6" s="65"/>
+      <c r="AD6" s="65">
         <f t="shared" ref="AD6" si="7">_xlfn.T.TEST(L3:L34,M3:M34,2,1)</f>
         <v>2.4624774983464691E-10</v>
       </c>
-      <c r="AE6" s="52"/>
-      <c r="AF6" s="52">
+      <c r="AE6" s="65"/>
+      <c r="AF6" s="65">
         <f t="shared" ref="AF6" si="8">_xlfn.T.TEST(N3:N34,O3:O34,2,1)</f>
         <v>2.5152702747972343E-10</v>
       </c>
-      <c r="AG6" s="52"/>
-      <c r="AH6" s="52">
+      <c r="AG6" s="65"/>
+      <c r="AH6" s="65">
         <f t="shared" ref="AH6" si="9">_xlfn.T.TEST(P3:P34,Q3:Q34,2,1)</f>
         <v>4.3670181525338209E-10</v>
       </c>
-      <c r="AI6" s="53"/>
+      <c r="AI6" s="66"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
@@ -12527,46 +12635,46 @@
       <c r="S7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="T7" s="54">
+      <c r="T7" s="67">
         <f>T11/T12</f>
         <v>1.1160357137142674</v>
       </c>
-      <c r="U7" s="54"/>
-      <c r="V7" s="54">
-        <f t="shared" ref="V7:AI7" si="10">V11/V12</f>
+      <c r="U7" s="67"/>
+      <c r="V7" s="67">
+        <f t="shared" ref="V7" si="10">V11/V12</f>
         <v>1.6605220267951253</v>
       </c>
-      <c r="W7" s="54"/>
-      <c r="X7" s="54">
-        <f t="shared" ref="X7:AI7" si="11">X11/X12</f>
+      <c r="W7" s="67"/>
+      <c r="X7" s="67">
+        <f t="shared" ref="X7" si="11">X11/X12</f>
         <v>1.4763764763772145</v>
       </c>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="54">
-        <f t="shared" ref="Z7:AI7" si="12">Z11/Z12</f>
+      <c r="Y7" s="67"/>
+      <c r="Z7" s="67">
+        <f t="shared" ref="Z7" si="12">Z11/Z12</f>
         <v>1.0388249184997518</v>
       </c>
-      <c r="AA7" s="54"/>
-      <c r="AB7" s="54">
-        <f t="shared" ref="AB7:AI7" si="13">AB11/AB12</f>
+      <c r="AA7" s="67"/>
+      <c r="AB7" s="67">
+        <f t="shared" ref="AB7" si="13">AB11/AB12</f>
         <v>1.5909902576697321</v>
       </c>
-      <c r="AC7" s="54"/>
-      <c r="AD7" s="54">
-        <f t="shared" ref="AD7:AI7" si="14">AD11/AD12</f>
+      <c r="AC7" s="67"/>
+      <c r="AD7" s="67">
+        <f t="shared" ref="AD7" si="14">AD11/AD12</f>
         <v>1.6202093044290495</v>
       </c>
-      <c r="AE7" s="54"/>
-      <c r="AF7" s="54">
-        <f t="shared" ref="AF7:AI7" si="15">AF11/AF12</f>
+      <c r="AE7" s="67"/>
+      <c r="AF7" s="67">
+        <f t="shared" ref="AF7" si="15">AF11/AF12</f>
         <v>1.6187083087964269</v>
       </c>
-      <c r="AG7" s="54"/>
-      <c r="AH7" s="54">
-        <f t="shared" ref="AH7:AI7" si="16">AH11/AH12</f>
+      <c r="AG7" s="67"/>
+      <c r="AH7" s="67">
+        <f t="shared" ref="AH7" si="16">AH11/AH12</f>
         <v>1.5799021674215279</v>
       </c>
-      <c r="AI7" s="55"/>
+      <c r="AI7" s="68"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
@@ -12623,46 +12731,46 @@
       <c r="S8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="T8" s="54">
+      <c r="T8" s="67">
         <f>T11-T15</f>
         <v>0.76156561527005651</v>
       </c>
-      <c r="U8" s="54"/>
-      <c r="V8" s="54">
+      <c r="U8" s="67"/>
+      <c r="V8" s="67">
         <f t="shared" ref="V8" si="17">V11-V15</f>
         <v>1.4434284438549225</v>
       </c>
-      <c r="W8" s="54"/>
-      <c r="X8" s="54">
+      <c r="W8" s="67"/>
+      <c r="X8" s="67">
         <f t="shared" ref="X8" si="18">X11-X15</f>
         <v>1.1336925714723045</v>
       </c>
-      <c r="Y8" s="54"/>
-      <c r="Z8" s="54">
+      <c r="Y8" s="67"/>
+      <c r="Z8" s="67">
         <f t="shared" ref="Z8" si="19">Z11-Z15</f>
         <v>0.95900015216767753</v>
       </c>
-      <c r="AA8" s="54"/>
-      <c r="AB8" s="54">
+      <c r="AA8" s="67"/>
+      <c r="AB8" s="67">
         <f t="shared" ref="AB8" si="20">AB11-AB15</f>
         <v>1.3050912288006735</v>
       </c>
-      <c r="AC8" s="54"/>
-      <c r="AD8" s="54">
+      <c r="AC8" s="67"/>
+      <c r="AD8" s="67">
         <f t="shared" ref="AD8" si="21">AD11-AD15</f>
         <v>1.3848758358209934</v>
       </c>
-      <c r="AE8" s="54"/>
-      <c r="AF8" s="54">
+      <c r="AE8" s="67"/>
+      <c r="AF8" s="67">
         <f t="shared" ref="AF8" si="22">AF11-AF15</f>
         <v>1.4330875241435161</v>
       </c>
-      <c r="AG8" s="54"/>
-      <c r="AH8" s="54">
+      <c r="AG8" s="67"/>
+      <c r="AH8" s="67">
         <f t="shared" ref="AH8" si="23">AH11-AH15</f>
         <v>1.4230006805249258</v>
       </c>
-      <c r="AI8" s="55"/>
+      <c r="AI8" s="68"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
@@ -12719,46 +12827,46 @@
       <c r="S9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="T9" s="54">
+      <c r="T9" s="67">
         <f>T11+T15</f>
         <v>1.4884343847299435</v>
       </c>
-      <c r="U9" s="54"/>
-      <c r="V9" s="54">
+      <c r="U9" s="67"/>
+      <c r="V9" s="67">
         <f t="shared" ref="V9" si="24">V11+V15</f>
         <v>2.2440715561450775</v>
       </c>
-      <c r="W9" s="54"/>
-      <c r="X9" s="54">
+      <c r="W9" s="67"/>
+      <c r="X9" s="67">
         <f t="shared" ref="X9" si="25">X11+X15</f>
         <v>1.8663074285276955</v>
       </c>
-      <c r="Y9" s="54"/>
-      <c r="Z9" s="54">
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="67">
         <f t="shared" ref="Z9" si="26">Z11+Z15</f>
         <v>1.9784998478323224</v>
       </c>
-      <c r="AA9" s="54"/>
-      <c r="AB9" s="54">
+      <c r="AA9" s="67"/>
+      <c r="AB9" s="67">
         <f t="shared" ref="AB9" si="27">AB11+AB15</f>
         <v>2.0699087711993265</v>
       </c>
-      <c r="AC9" s="54"/>
-      <c r="AD9" s="54">
+      <c r="AC9" s="67"/>
+      <c r="AD9" s="67">
         <f t="shared" ref="AD9" si="28">AD11+AD15</f>
         <v>2.1776241641790066</v>
       </c>
-      <c r="AE9" s="54"/>
-      <c r="AF9" s="54">
+      <c r="AE9" s="67"/>
+      <c r="AF9" s="67">
         <f t="shared" ref="AF9" si="29">AF11+AF15</f>
         <v>2.2544124758564839</v>
       </c>
-      <c r="AG9" s="54"/>
-      <c r="AH9" s="54">
+      <c r="AG9" s="67"/>
+      <c r="AH9" s="67">
         <f t="shared" ref="AH9" si="30">AH11+AH15</f>
         <v>2.2644993194750742</v>
       </c>
-      <c r="AI9" s="55"/>
+      <c r="AI9" s="68"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
@@ -12812,23 +12920,23 @@
       <c r="Q10" s="9">
         <v>4</v>
       </c>
-      <c r="S10" s="56"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="57"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="57"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="57"/>
-      <c r="AB10" s="57"/>
-      <c r="AC10" s="57"/>
-      <c r="AD10" s="57"/>
-      <c r="AE10" s="57"/>
-      <c r="AF10" s="57"/>
-      <c r="AG10" s="57"/>
-      <c r="AH10" s="57"/>
-      <c r="AI10" s="58"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="70"/>
+      <c r="V10" s="70"/>
+      <c r="W10" s="70"/>
+      <c r="X10" s="70"/>
+      <c r="Y10" s="70"/>
+      <c r="Z10" s="70"/>
+      <c r="AA10" s="70"/>
+      <c r="AB10" s="70"/>
+      <c r="AC10" s="70"/>
+      <c r="AD10" s="70"/>
+      <c r="AE10" s="70"/>
+      <c r="AF10" s="70"/>
+      <c r="AG10" s="70"/>
+      <c r="AH10" s="70"/>
+      <c r="AI10" s="71"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
@@ -12885,46 +12993,46 @@
       <c r="S11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="T11" s="48">
+      <c r="T11" s="63">
         <f>U4-T4</f>
         <v>1.125</v>
       </c>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48">
+      <c r="U11" s="63"/>
+      <c r="V11" s="63">
         <f>W4-V4</f>
         <v>1.84375</v>
       </c>
-      <c r="W11" s="48"/>
-      <c r="X11" s="48">
+      <c r="W11" s="63"/>
+      <c r="X11" s="63">
         <f>Y4-X4</f>
         <v>1.5</v>
       </c>
-      <c r="Y11" s="48"/>
-      <c r="Z11" s="48">
+      <c r="Y11" s="63"/>
+      <c r="Z11" s="63">
         <f>AA4-Z4</f>
         <v>1.46875</v>
       </c>
-      <c r="AA11" s="48"/>
-      <c r="AB11" s="48">
+      <c r="AA11" s="63"/>
+      <c r="AB11" s="63">
         <f>AC4-AB4</f>
         <v>1.6875</v>
       </c>
-      <c r="AC11" s="48"/>
-      <c r="AD11" s="48">
+      <c r="AC11" s="63"/>
+      <c r="AD11" s="63">
         <f>AE4-AD4</f>
         <v>1.78125</v>
       </c>
-      <c r="AE11" s="48"/>
-      <c r="AF11" s="48">
+      <c r="AE11" s="63"/>
+      <c r="AF11" s="63">
         <f>AG4-AF4</f>
         <v>1.84375</v>
       </c>
-      <c r="AG11" s="48"/>
-      <c r="AH11" s="48">
+      <c r="AG11" s="63"/>
+      <c r="AH11" s="63">
         <f>AI4-AH4</f>
         <v>1.84375</v>
       </c>
-      <c r="AI11" s="51"/>
+      <c r="AI11" s="64"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
@@ -12981,46 +13089,46 @@
       <c r="S12" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="T12" s="48">
+      <c r="T12" s="63">
         <f>_xlfn.STDEV.S(B37:B68)</f>
         <v>1.0080322575483707</v>
       </c>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48">
+      <c r="U12" s="63"/>
+      <c r="V12" s="63">
         <f>_xlfn.STDEV.S(C37:C68)</f>
         <v>1.1103435969220548</v>
       </c>
-      <c r="W12" s="48"/>
-      <c r="X12" s="48">
+      <c r="W12" s="63"/>
+      <c r="X12" s="63">
         <f>_xlfn.STDEV.S(D37:D68)</f>
         <v>1.016001016001524</v>
       </c>
-      <c r="Y12" s="48"/>
-      <c r="Z12" s="48">
+      <c r="Y12" s="63"/>
+      <c r="Z12" s="63">
         <f>_xlfn.STDEV.S(E37:E68)</f>
         <v>1.413857112824302</v>
       </c>
-      <c r="AA12" s="48"/>
-      <c r="AB12" s="48">
+      <c r="AA12" s="63"/>
+      <c r="AB12" s="63">
         <f>_xlfn.STDEV.S(F37:F68)</f>
         <v>1.0606601717798212</v>
       </c>
-      <c r="AC12" s="48"/>
-      <c r="AD12" s="48">
+      <c r="AC12" s="63"/>
+      <c r="AD12" s="63">
         <f>_xlfn.STDEV.S(G37:G68)</f>
         <v>1.0993949949125246</v>
       </c>
-      <c r="AE12" s="48"/>
-      <c r="AF12" s="48">
+      <c r="AE12" s="63"/>
+      <c r="AF12" s="63">
         <f>_xlfn.STDEV.S(H37:H68)</f>
         <v>1.1390254748064526</v>
       </c>
-      <c r="AG12" s="48"/>
-      <c r="AH12" s="48">
+      <c r="AG12" s="63"/>
+      <c r="AH12" s="63">
         <f>_xlfn.STDEV.S(I37:I68)</f>
         <v>1.1670026397957816</v>
       </c>
-      <c r="AI12" s="51"/>
+      <c r="AI12" s="64"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
@@ -13077,46 +13185,46 @@
       <c r="S13" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="T13" s="48">
+      <c r="T13" s="63">
         <f>T12/SQRT(COUNT(B37:B68))</f>
         <v>0.1781966112418093</v>
       </c>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48">
+      <c r="U13" s="63"/>
+      <c r="V13" s="63">
         <f>V12/SQRT(COUNT(C37:C68))</f>
         <v>0.19628287170766187</v>
       </c>
-      <c r="W13" s="48"/>
-      <c r="X13" s="48">
+      <c r="W13" s="63"/>
+      <c r="X13" s="63">
         <f>X12/SQRT(COUNT(D37:D68))</f>
         <v>0.17960530202677488</v>
       </c>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="48">
+      <c r="Y13" s="63"/>
+      <c r="Z13" s="63">
         <f>Z12/SQRT(COUNT(E37:E68))</f>
         <v>0.24993698802672437</v>
       </c>
-      <c r="AA13" s="48"/>
-      <c r="AB13" s="48">
+      <c r="AA13" s="63"/>
+      <c r="AB13" s="63">
         <f>AB12/SQRT(COUNT(F37:F68))</f>
         <v>0.18749999999999997</v>
       </c>
-      <c r="AC13" s="48"/>
-      <c r="AD13" s="48">
+      <c r="AC13" s="63"/>
+      <c r="AD13" s="63">
         <f>AD12/SQRT(COUNT(G37:G68))</f>
         <v>0.19434741402629899</v>
       </c>
-      <c r="AE13" s="48"/>
-      <c r="AF13" s="48">
+      <c r="AE13" s="63"/>
+      <c r="AF13" s="63">
         <f>AF12/SQRT(COUNT(H37:H68))</f>
         <v>0.20135315929496739</v>
       </c>
-      <c r="AG13" s="48"/>
-      <c r="AH13" s="48">
+      <c r="AG13" s="63"/>
+      <c r="AH13" s="63">
         <f>AH12/SQRT(COUNT(I37:I68))</f>
         <v>0.20629887006554976</v>
       </c>
-      <c r="AI13" s="51"/>
+      <c r="AI13" s="64"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
@@ -13173,46 +13281,46 @@
       <c r="S14" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="48">
+      <c r="T14" s="63">
         <f>_xlfn.T.INV.2T(0.05,COUNT(B37:B68)-1)</f>
         <v>2.0395134463964082</v>
       </c>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48">
+      <c r="U14" s="63"/>
+      <c r="V14" s="63">
         <f>_xlfn.T.INV.2T(0.05,COUNT(C37:C68)-1)</f>
         <v>2.0395134463964082</v>
       </c>
-      <c r="W14" s="48"/>
-      <c r="X14" s="48">
+      <c r="W14" s="63"/>
+      <c r="X14" s="63">
         <f>_xlfn.T.INV.2T(0.05,COUNT(D37:D68)-1)</f>
         <v>2.0395134463964082</v>
       </c>
-      <c r="Y14" s="48"/>
-      <c r="Z14" s="48">
+      <c r="Y14" s="63"/>
+      <c r="Z14" s="63">
         <f>_xlfn.T.INV.2T(0.05,COUNT(E37:E68)-1)</f>
         <v>2.0395134463964082</v>
       </c>
-      <c r="AA14" s="48"/>
-      <c r="AB14" s="48">
+      <c r="AA14" s="63"/>
+      <c r="AB14" s="63">
         <f>_xlfn.T.INV.2T(0.05,COUNT(F37:F68)-1)</f>
         <v>2.0395134463964082</v>
       </c>
-      <c r="AC14" s="48"/>
-      <c r="AD14" s="48">
+      <c r="AC14" s="63"/>
+      <c r="AD14" s="63">
         <f>_xlfn.T.INV.2T(0.05,COUNT(G37:G68)-1)</f>
         <v>2.0395134463964082</v>
       </c>
-      <c r="AE14" s="48"/>
-      <c r="AF14" s="48">
+      <c r="AE14" s="63"/>
+      <c r="AF14" s="63">
         <f>_xlfn.T.INV.2T(0.05,COUNT(H37:H68)-1)</f>
         <v>2.0395134463964082</v>
       </c>
-      <c r="AG14" s="48"/>
-      <c r="AH14" s="48">
+      <c r="AG14" s="63"/>
+      <c r="AH14" s="63">
         <f>_xlfn.T.INV.2T(0.05,COUNT(I37:I68)-1)</f>
         <v>2.0395134463964082</v>
       </c>
-      <c r="AI14" s="51"/>
+      <c r="AI14" s="64"/>
     </row>
     <row r="15" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
@@ -13269,46 +13377,46 @@
       <c r="S15" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="T15" s="49">
+      <c r="T15" s="61">
         <f>T14*T13</f>
         <v>0.36343438472994344</v>
       </c>
-      <c r="U15" s="49"/>
-      <c r="V15" s="49">
+      <c r="U15" s="61"/>
+      <c r="V15" s="61">
         <f t="shared" ref="V15" si="31">V14*V13</f>
         <v>0.40032155614507753</v>
       </c>
-      <c r="W15" s="49"/>
-      <c r="X15" s="49">
+      <c r="W15" s="61"/>
+      <c r="X15" s="61">
         <f t="shared" ref="X15" si="32">X14*X13</f>
         <v>0.36630742852769543</v>
       </c>
-      <c r="Y15" s="49"/>
-      <c r="Z15" s="49">
+      <c r="Y15" s="61"/>
+      <c r="Z15" s="61">
         <f t="shared" ref="Z15" si="33">Z14*Z13</f>
         <v>0.50974984783232247</v>
       </c>
-      <c r="AA15" s="49"/>
-      <c r="AB15" s="49">
+      <c r="AA15" s="61"/>
+      <c r="AB15" s="61">
         <f t="shared" ref="AB15" si="34">AB14*AB13</f>
         <v>0.38240877119932648</v>
       </c>
-      <c r="AC15" s="49"/>
-      <c r="AD15" s="49">
+      <c r="AC15" s="61"/>
+      <c r="AD15" s="61">
         <f t="shared" ref="AD15" si="35">AD14*AD13</f>
         <v>0.39637416417900667</v>
       </c>
-      <c r="AE15" s="49"/>
-      <c r="AF15" s="49">
+      <c r="AE15" s="61"/>
+      <c r="AF15" s="61">
         <f t="shared" ref="AF15" si="36">AF14*AF13</f>
         <v>0.41066247585648391</v>
       </c>
-      <c r="AG15" s="49"/>
-      <c r="AH15" s="49">
+      <c r="AG15" s="61"/>
+      <c r="AH15" s="61">
         <f t="shared" ref="AH15" si="37">AH14*AH13</f>
         <v>0.42074931947507421</v>
       </c>
-      <c r="AI15" s="50"/>
+      <c r="AI15" s="62"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
@@ -15561,7 +15669,6 @@
     <mergeCell ref="AB6:AC6"/>
     <mergeCell ref="AD6:AE6"/>
     <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="AD8:AE8"/>
     <mergeCell ref="AF6:AG6"/>
     <mergeCell ref="T7:U7"/>
     <mergeCell ref="V7:W7"/>
@@ -15570,13 +15677,6 @@
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="AF11:AG11"/>
-    <mergeCell ref="S10:AI10"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
     <mergeCell ref="Z9:AA9"/>
     <mergeCell ref="AB9:AC9"/>
     <mergeCell ref="AD9:AE9"/>
@@ -15586,6 +15686,7 @@
     <mergeCell ref="X8:Y8"/>
     <mergeCell ref="Z8:AA8"/>
     <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
     <mergeCell ref="T11:U11"/>
     <mergeCell ref="V11:W11"/>
     <mergeCell ref="X11:Y11"/>
@@ -15602,35 +15703,241 @@
     <mergeCell ref="X14:Y14"/>
     <mergeCell ref="Z14:AA14"/>
     <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V14:W14"/>
     <mergeCell ref="AF12:AG12"/>
     <mergeCell ref="AD12:AE12"/>
     <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="AH11:AI11"/>
     <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="AH14:AI14"/>
     <mergeCell ref="AH6:AI6"/>
     <mergeCell ref="AH7:AI7"/>
     <mergeCell ref="AH8:AI8"/>
     <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="AF11:AG11"/>
+    <mergeCell ref="S10:AI10"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
     <mergeCell ref="AH15:AI15"/>
     <mergeCell ref="AH13:AI13"/>
     <mergeCell ref="AF13:AG13"/>
     <mergeCell ref="AD13:AE13"/>
     <mergeCell ref="AF14:AG14"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="AF15:AG15"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="AH14:AI14"/>
     <mergeCell ref="T15:U15"/>
     <mergeCell ref="V15:W15"/>
     <mergeCell ref="X15:Y15"/>
     <mergeCell ref="Z15:AA15"/>
     <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="AF15:AG15"/>
-    <mergeCell ref="V14:W14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E518E42-D05C-498C-AC47-F996D80A2961}">
+  <dimension ref="B1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="42.375" customWidth="1"/>
+    <col min="6" max="6" width="22.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="13">
+        <v>4.2109375</v>
+      </c>
+      <c r="D3" s="18">
+        <v>0.67084856891801958</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="27">
+        <v>0.25488227798493518</v>
+      </c>
+      <c r="H3" s="29">
+        <v>0.15917719726264334</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="13">
+        <v>145.9375</v>
+      </c>
+      <c r="D4" s="18">
+        <v>21.680878300266521</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="27">
+        <v>-0.10637500465935</v>
+      </c>
+      <c r="H4" s="29">
+        <v>0.56228224356191525</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="13">
+        <v>21.875</v>
+      </c>
+      <c r="D5" s="18">
+        <v>4.8376780620725581</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="27">
+        <v>0.48911180636397616</v>
+      </c>
+      <c r="H5" s="29">
+        <v>4.4996776899756822E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="13">
+        <v>4.0635312499999996</v>
+      </c>
+      <c r="D6" s="18">
+        <v>0.73959033928228224</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="27">
+        <v>0.41512396624333836</v>
+      </c>
+      <c r="H6" s="29">
+        <v>1.8147362439371637E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="20">
+        <v>4.6529375000000002</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0.40214103909272997</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="29"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F8" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="27">
+        <v>0.4122020773925027</v>
+      </c>
+      <c r="H8" s="29">
+        <v>1.9062472384889947E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F9" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="27">
+        <v>-2.8851821137283316E-2</v>
+      </c>
+      <c r="H9" s="29">
+        <v>0.87544229969097476</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F10" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="27">
+        <v>-5.1255309611020899E-2</v>
+      </c>
+      <c r="H10" s="29">
+        <v>0.78055856844717553</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F11" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="27">
+        <v>-0.45313314487069301</v>
+      </c>
+      <c r="H11" s="29">
+        <v>9.2025234277911504E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F12" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="27">
+        <v>-0.214748727522653</v>
+      </c>
+      <c r="H12" s="29">
+        <v>0.23787995308267407</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F13" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="31">
+        <v>1.5972372730851964E-3</v>
+      </c>
+      <c r="H13" s="32">
+        <v>0.99307776237852419</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>